--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_100ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_100ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
@@ -6177,28 +6177,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>10124.63289168277</v>
+        <v>10383.46333334668</v>
       </c>
       <c r="AB2" t="n">
-        <v>13852.96938968014</v>
+        <v>14207.11261875791</v>
       </c>
       <c r="AC2" t="n">
-        <v>12530.8614338932</v>
+        <v>12851.20573023092</v>
       </c>
       <c r="AD2" t="n">
-        <v>10124632.89168277</v>
+        <v>10383463.33334668</v>
       </c>
       <c r="AE2" t="n">
-        <v>13852969.38968014</v>
+        <v>14207112.61875791</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.149720290940398e-07</v>
+        <v>7.424168486628797e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>60</v>
+        <v>59.02083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>12530861.4338932</v>
+        <v>12851205.73023092</v>
       </c>
     </row>
     <row r="3">
@@ -6283,28 +6283,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3401.558912870645</v>
+        <v>3539.522205397789</v>
       </c>
       <c r="AB3" t="n">
-        <v>4654.162970777979</v>
+        <v>4842.93043412453</v>
       </c>
       <c r="AC3" t="n">
-        <v>4209.976189005508</v>
+        <v>4380.727950587056</v>
       </c>
       <c r="AD3" t="n">
-        <v>3401558.912870645</v>
+        <v>3539522.205397789</v>
       </c>
       <c r="AE3" t="n">
-        <v>4654162.970777979</v>
+        <v>4842930.434124529</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.701314429108685e-07</v>
+        <v>1.39860397835925e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.32916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>4209976.189005508</v>
+        <v>4380727.950587056</v>
       </c>
     </row>
     <row r="4">
@@ -6389,28 +6389,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2622.129396239592</v>
+        <v>2742.91120452179</v>
       </c>
       <c r="AB4" t="n">
-        <v>3587.713120119879</v>
+        <v>3752.972118728905</v>
       </c>
       <c r="AC4" t="n">
-        <v>3245.306815322492</v>
+        <v>3394.793727046728</v>
       </c>
       <c r="AD4" t="n">
-        <v>2622129.396239592</v>
+        <v>2742911.20452179</v>
       </c>
       <c r="AE4" t="n">
-        <v>3587713.120119879</v>
+        <v>3752972.118728905</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.136439690267017e-06</v>
+        <v>1.638364660363692e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.74375</v>
       </c>
       <c r="AH4" t="n">
-        <v>3245306.815322492</v>
+        <v>3394793.727046728</v>
       </c>
     </row>
     <row r="5">
@@ -6495,28 +6495,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2319.510700955042</v>
+        <v>2431.659141441756</v>
       </c>
       <c r="AB5" t="n">
-        <v>3173.656870636936</v>
+        <v>3327.103314550874</v>
       </c>
       <c r="AC5" t="n">
-        <v>2870.767513158621</v>
+        <v>3009.569243828843</v>
       </c>
       <c r="AD5" t="n">
-        <v>2319510.700955042</v>
+        <v>2431659.141441756</v>
       </c>
       <c r="AE5" t="n">
-        <v>3173656.870636936</v>
+        <v>3327103.314550874</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.224262115625264e-06</v>
+        <v>1.764975125773056e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.825</v>
       </c>
       <c r="AH5" t="n">
-        <v>2870767.513158621</v>
+        <v>3009569.243828843</v>
       </c>
     </row>
     <row r="6">
@@ -6601,28 +6601,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2155.640048312929</v>
+        <v>2267.703147945074</v>
       </c>
       <c r="AB6" t="n">
-        <v>2949.44181422885</v>
+        <v>3102.771491020764</v>
       </c>
       <c r="AC6" t="n">
-        <v>2667.951227046435</v>
+        <v>2806.647334684763</v>
       </c>
       <c r="AD6" t="n">
-        <v>2155640.048312929</v>
+        <v>2267703.147945074</v>
       </c>
       <c r="AE6" t="n">
-        <v>2949441.81422885</v>
+        <v>3102771.491020764</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.278822891512282e-06</v>
+        <v>1.843633454781531e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.76666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2667951.227046435</v>
+        <v>2806647.334684763</v>
       </c>
     </row>
     <row r="7">
@@ -6707,28 +6707,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2054.682853042521</v>
+        <v>2149.649988301391</v>
       </c>
       <c r="AB7" t="n">
-        <v>2811.307725742765</v>
+        <v>2941.245949858267</v>
       </c>
       <c r="AC7" t="n">
-        <v>2543.000462093049</v>
+        <v>2660.537564468411</v>
       </c>
       <c r="AD7" t="n">
-        <v>2054682.853042522</v>
+        <v>2149649.988301391</v>
       </c>
       <c r="AE7" t="n">
-        <v>2811307.725742765</v>
+        <v>2941245.949858267</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.316606958236178e-06</v>
+        <v>1.898105399201839e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.08541666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>2543000.462093049</v>
+        <v>2660537.564468411</v>
       </c>
     </row>
     <row r="8">
@@ -6813,28 +6813,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1975.789763738465</v>
+        <v>2079.304836429696</v>
       </c>
       <c r="AB8" t="n">
-        <v>2703.362720439498</v>
+        <v>2844.99660965834</v>
       </c>
       <c r="AC8" t="n">
-        <v>2445.35757659416</v>
+        <v>2573.474126210368</v>
       </c>
       <c r="AD8" t="n">
-        <v>1975789.763738465</v>
+        <v>2079304.836429696</v>
       </c>
       <c r="AE8" t="n">
-        <v>2703362.720439498</v>
+        <v>2844996.60965834</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.34315792404216e-06</v>
+        <v>1.93638298176746e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.62916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>2445357.576594159</v>
+        <v>2573474.126210368</v>
       </c>
     </row>
     <row r="9">
@@ -6919,28 +6919,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1922.013868655575</v>
+        <v>2016.895663059873</v>
       </c>
       <c r="AB9" t="n">
-        <v>2629.784168362034</v>
+        <v>2759.605625355338</v>
       </c>
       <c r="AC9" t="n">
-        <v>2378.801258258822</v>
+        <v>2496.232737602244</v>
       </c>
       <c r="AD9" t="n">
-        <v>1922013.868655575</v>
+        <v>2016895.663059873</v>
       </c>
       <c r="AE9" t="n">
-        <v>2629784.168362034</v>
+        <v>2759605.625355338</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.363581743892915e-06</v>
+        <v>1.965827276048708e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.2875</v>
       </c>
       <c r="AH9" t="n">
-        <v>2378801.258258822</v>
+        <v>2496232.737602245</v>
       </c>
     </row>
     <row r="10">
@@ -7025,28 +7025,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1876.630135049706</v>
+        <v>1971.511929454003</v>
       </c>
       <c r="AB10" t="n">
-        <v>2567.688141853464</v>
+        <v>2697.509598846768</v>
       </c>
       <c r="AC10" t="n">
-        <v>2322.63158936791</v>
+        <v>2440.063068711333</v>
       </c>
       <c r="AD10" t="n">
-        <v>1876630.135049706</v>
+        <v>1971511.929454003</v>
       </c>
       <c r="AE10" t="n">
-        <v>2567688.141853464</v>
+        <v>2697509.598846768</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.380504337483541e-06</v>
+        <v>1.990223977024598e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.01458333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>2322631.58936791</v>
+        <v>2440063.068711333</v>
       </c>
     </row>
     <row r="11">
@@ -7131,28 +7131,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1824.474817748969</v>
+        <v>1919.441863499287</v>
       </c>
       <c r="AB11" t="n">
-        <v>2496.326935792388</v>
+        <v>2626.265037438342</v>
       </c>
       <c r="AC11" t="n">
-        <v>2258.080996657221</v>
+        <v>2375.617988251357</v>
       </c>
       <c r="AD11" t="n">
-        <v>1824474.817748969</v>
+        <v>1919441.863499287</v>
       </c>
       <c r="AE11" t="n">
-        <v>2496326.935792388</v>
+        <v>2626265.037438342</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.395676317944102e-06</v>
+        <v>2.012096881347811e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.77708333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>2258080.996657222</v>
+        <v>2375617.988251356</v>
       </c>
     </row>
     <row r="12">
@@ -7237,28 +7237,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1819.668359772753</v>
+        <v>1914.635405523072</v>
       </c>
       <c r="AB12" t="n">
-        <v>2489.750527943369</v>
+        <v>2619.688629589323</v>
       </c>
       <c r="AC12" t="n">
-        <v>2252.132231943267</v>
+        <v>2369.669223537401</v>
       </c>
       <c r="AD12" t="n">
-        <v>1819668.359772753</v>
+        <v>1914635.405523072</v>
       </c>
       <c r="AE12" t="n">
-        <v>2489750.527943369</v>
+        <v>2619688.629589323</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.395968086799113e-06</v>
+        <v>2.012517514123257e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.77291666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>2252132.231943267</v>
+        <v>2369669.223537401</v>
       </c>
     </row>
     <row r="13">
@@ -7343,28 +7343,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1774.513427696694</v>
+        <v>1869.480473447012</v>
       </c>
       <c r="AB13" t="n">
-        <v>2427.967557781897</v>
+        <v>2557.90565942785</v>
       </c>
       <c r="AC13" t="n">
-        <v>2196.245741741061</v>
+        <v>2313.782733335197</v>
       </c>
       <c r="AD13" t="n">
-        <v>1774513.427696694</v>
+        <v>1869480.473447012</v>
       </c>
       <c r="AE13" t="n">
-        <v>2427967.557781897</v>
+        <v>2557905.65942785</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.41157772054219e-06</v>
+        <v>2.035021367609639e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.53125</v>
       </c>
       <c r="AH13" t="n">
-        <v>2196245.741741062</v>
+        <v>2313782.733335197</v>
       </c>
     </row>
     <row r="14">
@@ -7449,28 +7449,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1749.247477338495</v>
+        <v>1844.043930888222</v>
       </c>
       <c r="AB14" t="n">
-        <v>2393.397569846748</v>
+        <v>2523.102259717855</v>
       </c>
       <c r="AC14" t="n">
-        <v>2164.975064935162</v>
+        <v>2282.300921246645</v>
       </c>
       <c r="AD14" t="n">
-        <v>1749247.477338495</v>
+        <v>1844043.930888222</v>
       </c>
       <c r="AE14" t="n">
-        <v>2393397.569846748</v>
+        <v>2523102.259717855</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.41887194191746e-06</v>
+        <v>2.045537186995799e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>21.42083333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>2164975.064935162</v>
+        <v>2282300.921246645</v>
       </c>
     </row>
     <row r="15">
@@ -7555,28 +7555,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1724.226381959188</v>
+        <v>1819.022835508913</v>
       </c>
       <c r="AB15" t="n">
-        <v>2359.162603295957</v>
+        <v>2488.867293167064</v>
       </c>
       <c r="AC15" t="n">
-        <v>2134.0074355429</v>
+        <v>2251.333291854384</v>
       </c>
       <c r="AD15" t="n">
-        <v>1724226.381959188</v>
+        <v>1819022.835508914</v>
       </c>
       <c r="AE15" t="n">
-        <v>2359162.603295957</v>
+        <v>2488867.293167064</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.426166163292729e-06</v>
+        <v>2.056053006381958e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>21.31041666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>2134007.4355429</v>
+        <v>2251333.291854384</v>
       </c>
     </row>
     <row r="16">
@@ -7661,28 +7661,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1700.932585060271</v>
+        <v>1795.729038609997</v>
       </c>
       <c r="AB16" t="n">
-        <v>2327.291002729069</v>
+        <v>2456.995692600175</v>
       </c>
       <c r="AC16" t="n">
-        <v>2105.177615802043</v>
+        <v>2222.503472113527</v>
       </c>
       <c r="AD16" t="n">
-        <v>1700932.585060271</v>
+        <v>1795729.038609997</v>
       </c>
       <c r="AE16" t="n">
-        <v>2327291.002729069</v>
+        <v>2456995.692600175</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.432439193675461e-06</v>
+        <v>2.065096611054056e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>22</v>
+        <v>21.21875</v>
       </c>
       <c r="AH16" t="n">
-        <v>2105177.615802043</v>
+        <v>2222503.472113526</v>
       </c>
     </row>
     <row r="17">
@@ -7767,28 +7767,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1676.944606135155</v>
+        <v>1771.741059684882</v>
       </c>
       <c r="AB17" t="n">
-        <v>2294.469591688784</v>
+        <v>2424.174281559891</v>
       </c>
       <c r="AC17" t="n">
-        <v>2075.488634166304</v>
+        <v>2192.814490477787</v>
       </c>
       <c r="AD17" t="n">
-        <v>1676944.606135155</v>
+        <v>1771741.059684881</v>
       </c>
       <c r="AE17" t="n">
-        <v>2294469.591688784</v>
+        <v>2424174.281559891</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.437107495355634e-06</v>
+        <v>2.071826735461198e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>22</v>
+        <v>21.14791666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>2075488.634166304</v>
+        <v>2192814.490477787</v>
       </c>
     </row>
     <row r="18">
@@ -7873,28 +7873,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1658.811096460008</v>
+        <v>1745.144863923394</v>
       </c>
       <c r="AB18" t="n">
-        <v>2269.658523757262</v>
+        <v>2387.784193177677</v>
       </c>
       <c r="AC18" t="n">
-        <v>2053.045499735613</v>
+        <v>2159.897421056962</v>
       </c>
       <c r="AD18" t="n">
-        <v>1658811.096460008</v>
+        <v>1745144.863923394</v>
       </c>
       <c r="AE18" t="n">
-        <v>2269658.523757262</v>
+        <v>2387784.193177677</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.442505219173333e-06</v>
+        <v>2.079608441806956e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>22</v>
+        <v>21.07083333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>2053045.499735613</v>
+        <v>2159897.421056962</v>
       </c>
     </row>
     <row r="19">
@@ -7979,28 +7979,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1636.021797087536</v>
+        <v>1722.355564550921</v>
       </c>
       <c r="AB19" t="n">
-        <v>2238.477198962914</v>
+        <v>2356.602868383329</v>
       </c>
       <c r="AC19" t="n">
-        <v>2024.840076816373</v>
+        <v>2131.691998137722</v>
       </c>
       <c r="AD19" t="n">
-        <v>1636021.797087535</v>
+        <v>1722355.564550921</v>
       </c>
       <c r="AE19" t="n">
-        <v>2238477.198962914</v>
+        <v>2356602.868383329</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.445860561005957e-06</v>
+        <v>2.08444571872459e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>22</v>
+        <v>21.01875</v>
       </c>
       <c r="AH19" t="n">
-        <v>2024840.076816373</v>
+        <v>2131691.998137722</v>
       </c>
     </row>
     <row r="20">
@@ -8085,28 +8085,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1610.401091283361</v>
+        <v>1705.282796179108</v>
       </c>
       <c r="AB20" t="n">
-        <v>2203.421818975875</v>
+        <v>2333.243153499631</v>
       </c>
       <c r="AC20" t="n">
-        <v>1993.130333094763</v>
+        <v>2110.561701656959</v>
       </c>
       <c r="AD20" t="n">
-        <v>1610401.091283361</v>
+        <v>1705282.796179108</v>
       </c>
       <c r="AE20" t="n">
-        <v>2203421.818975875</v>
+        <v>2333243.153499631</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.449361787266087e-06</v>
+        <v>2.089493312029946e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>21</v>
+        <v>20.97083333333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>1993130.333094763</v>
+        <v>2110561.701656959</v>
       </c>
     </row>
     <row r="21">
@@ -8191,28 +8191,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1589.239566534889</v>
+        <v>1684.121271430635</v>
       </c>
       <c r="AB21" t="n">
-        <v>2174.467687234433</v>
+        <v>2304.289021758188</v>
       </c>
       <c r="AC21" t="n">
-        <v>1966.939543049344</v>
+        <v>2084.370911611541</v>
       </c>
       <c r="AD21" t="n">
-        <v>1589239.566534889</v>
+        <v>1684121.271430636</v>
       </c>
       <c r="AE21" t="n">
-        <v>2174467.687234432</v>
+        <v>2304289.021758188</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.452863013526216e-06</v>
+        <v>2.094540905335303e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>21</v>
+        <v>20.91875</v>
       </c>
       <c r="AH21" t="n">
-        <v>1966939.543049344</v>
+        <v>2084370.91161154</v>
       </c>
     </row>
     <row r="22">
@@ -8297,28 +8297,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1577.297902333949</v>
+        <v>1672.179607229695</v>
       </c>
       <c r="AB22" t="n">
-        <v>2158.128575445663</v>
+        <v>2287.949909969419</v>
       </c>
       <c r="AC22" t="n">
-        <v>1952.159813157608</v>
+        <v>2069.591181719804</v>
       </c>
       <c r="AD22" t="n">
-        <v>1577297.902333949</v>
+        <v>1672179.607229695</v>
       </c>
       <c r="AE22" t="n">
-        <v>2158128.575445663</v>
+        <v>2287949.909969419</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.455197164366303e-06</v>
+        <v>2.097905967538874e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>21</v>
+        <v>20.88541666666667</v>
       </c>
       <c r="AH22" t="n">
-        <v>1952159.813157608</v>
+        <v>2069591.181719804</v>
       </c>
     </row>
     <row r="23">
@@ -8403,28 +8403,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1571.497799383312</v>
+        <v>1666.379504279058</v>
       </c>
       <c r="AB23" t="n">
-        <v>2150.192618706119</v>
+        <v>2280.013953229875</v>
       </c>
       <c r="AC23" t="n">
-        <v>1944.981252991101</v>
+        <v>2062.412621553297</v>
       </c>
       <c r="AD23" t="n">
-        <v>1571497.799383312</v>
+        <v>1666379.504279058</v>
       </c>
       <c r="AE23" t="n">
-        <v>2150192.618706119</v>
+        <v>2280013.953229875</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.45621835535884e-06</v>
+        <v>2.099378182252936e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>21</v>
+        <v>20.87083333333333</v>
       </c>
       <c r="AH23" t="n">
-        <v>1944981.252991101</v>
+        <v>2062412.621553296</v>
       </c>
     </row>
     <row r="24">
@@ -8509,28 +8509,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>1577.154166908058</v>
+        <v>1672.035871803804</v>
       </c>
       <c r="AB24" t="n">
-        <v>2157.9319102948</v>
+        <v>2287.753244818555</v>
       </c>
       <c r="AC24" t="n">
-        <v>1951.981917452722</v>
+        <v>2069.413286014917</v>
       </c>
       <c r="AD24" t="n">
-        <v>1577154.166908057</v>
+        <v>1672035.871803804</v>
       </c>
       <c r="AE24" t="n">
-        <v>2157931.9102948</v>
+        <v>2287753.244818555</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.455780702076324e-06</v>
+        <v>2.098747233089767e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>21</v>
+        <v>20.87708333333333</v>
       </c>
       <c r="AH24" t="n">
-        <v>1951981.917452722</v>
+        <v>2069413.286014917</v>
       </c>
     </row>
     <row r="25">
@@ -8615,28 +8615,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>1583.475684273457</v>
+        <v>1678.357389169204</v>
       </c>
       <c r="AB25" t="n">
-        <v>2166.581289239803</v>
+        <v>2296.402623763558</v>
       </c>
       <c r="AC25" t="n">
-        <v>1959.805811810693</v>
+        <v>2077.237180372889</v>
       </c>
       <c r="AD25" t="n">
-        <v>1583475.684273457</v>
+        <v>1678357.389169204</v>
       </c>
       <c r="AE25" t="n">
-        <v>2166581.289239803</v>
+        <v>2296402.623763558</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.455780702076324e-06</v>
+        <v>2.098747233089767e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>21</v>
+        <v>20.87708333333333</v>
       </c>
       <c r="AH25" t="n">
-        <v>1959805.811810693</v>
+        <v>2077237.180372889</v>
       </c>
     </row>
   </sheetData>
@@ -8912,28 +8912,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6102.581762956441</v>
+        <v>6304.34399522135</v>
       </c>
       <c r="AB2" t="n">
-        <v>8349.821594983781</v>
+        <v>8625.881582290123</v>
       </c>
       <c r="AC2" t="n">
-        <v>7552.926341006424</v>
+        <v>7802.639550576865</v>
       </c>
       <c r="AD2" t="n">
-        <v>6102581.76295644</v>
+        <v>6304343.99522135</v>
       </c>
       <c r="AE2" t="n">
-        <v>8349821.594983781</v>
+        <v>8625881.582290124</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.779119732548553e-07</v>
+        <v>9.924376265065404e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>47</v>
+        <v>46.38333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>7552926.341006424</v>
+        <v>7802639.550576865</v>
       </c>
     </row>
     <row r="3">
@@ -9018,28 +9018,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2678.144768749189</v>
+        <v>2804.320781219663</v>
       </c>
       <c r="AB3" t="n">
-        <v>3664.35582401134</v>
+        <v>3836.995410766259</v>
       </c>
       <c r="AC3" t="n">
-        <v>3314.634847123258</v>
+        <v>3470.797954019464</v>
       </c>
       <c r="AD3" t="n">
-        <v>2678144.768749189</v>
+        <v>2804320.781219663</v>
       </c>
       <c r="AE3" t="n">
-        <v>3664355.82401134</v>
+        <v>3836995.410766259</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.094438475076627e-06</v>
+        <v>1.602216755882776e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.72708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3314634.847123258</v>
+        <v>3470797.954019464</v>
       </c>
     </row>
     <row r="4">
@@ -9124,28 +9124,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2161.364661446103</v>
+        <v>2270.620575460553</v>
       </c>
       <c r="AB4" t="n">
-        <v>2957.274482469766</v>
+        <v>3106.76324405526</v>
       </c>
       <c r="AC4" t="n">
-        <v>2675.036356423655</v>
+        <v>2810.258120412107</v>
       </c>
       <c r="AD4" t="n">
-        <v>2161364.661446103</v>
+        <v>2270620.575460553</v>
       </c>
       <c r="AE4" t="n">
-        <v>2957274.482469766</v>
+        <v>3106763.24405526</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.24444838189215e-06</v>
+        <v>1.821825616245087e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.2625</v>
       </c>
       <c r="AH4" t="n">
-        <v>2675036.356423656</v>
+        <v>2810258.120412108</v>
       </c>
     </row>
     <row r="5">
@@ -9230,28 +9230,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1942.007026962072</v>
+        <v>2051.262851467969</v>
       </c>
       <c r="AB5" t="n">
-        <v>2657.139689592877</v>
+        <v>2806.628328708641</v>
       </c>
       <c r="AC5" t="n">
-        <v>2403.546006937109</v>
+        <v>2538.767660144287</v>
       </c>
       <c r="AD5" t="n">
-        <v>1942007.026962072</v>
+        <v>2051262.851467968</v>
       </c>
       <c r="AE5" t="n">
-        <v>2657139.689592877</v>
+        <v>2806628.328708641</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.322320727884916e-06</v>
+        <v>1.935827801302384e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.77708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2403546.006937109</v>
+        <v>2538767.660144287</v>
       </c>
     </row>
     <row r="6">
@@ -9336,28 +9336,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1816.560496410055</v>
+        <v>1917.48423821552</v>
       </c>
       <c r="AB6" t="n">
-        <v>2485.498212181271</v>
+        <v>2623.586528160759</v>
       </c>
       <c r="AC6" t="n">
-        <v>2248.285751229341</v>
+        <v>2373.195112139914</v>
       </c>
       <c r="AD6" t="n">
-        <v>1816560.496410055</v>
+        <v>1917484.23821552</v>
       </c>
       <c r="AE6" t="n">
-        <v>2485498.212181271</v>
+        <v>2623586.528160759</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.370764571031579e-06</v>
+        <v>2.006747765262446e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.93541666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2248285.751229341</v>
+        <v>2373195.112139914</v>
       </c>
     </row>
     <row r="7">
@@ -9442,28 +9442,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1740.292547576561</v>
+        <v>1832.798955335574</v>
       </c>
       <c r="AB7" t="n">
-        <v>2381.145039882851</v>
+        <v>2507.716388073414</v>
       </c>
       <c r="AC7" t="n">
-        <v>2153.891899234484</v>
+        <v>2268.383455597742</v>
       </c>
       <c r="AD7" t="n">
-        <v>1740292.547576561</v>
+        <v>1832798.955335574</v>
       </c>
       <c r="AE7" t="n">
-        <v>2381145.039882851</v>
+        <v>2507716.388073414</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.402909551063476e-06</v>
+        <v>2.053806806768655e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.41041666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>2153891.899234484</v>
+        <v>2268383.455597742</v>
       </c>
     </row>
     <row r="8">
@@ -9548,28 +9548,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1680.937983652545</v>
+        <v>1773.444391411557</v>
       </c>
       <c r="AB8" t="n">
-        <v>2299.933506983459</v>
+        <v>2426.504855174021</v>
       </c>
       <c r="AC8" t="n">
-        <v>2080.431081053907</v>
+        <v>2194.922637417166</v>
       </c>
       <c r="AD8" t="n">
-        <v>1680937.983652545</v>
+        <v>1773444.391411557</v>
       </c>
       <c r="AE8" t="n">
-        <v>2299933.506983459</v>
+        <v>2426504.855174021</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.427206930336413e-06</v>
+        <v>2.089377255982269e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.02916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>2080431.081053908</v>
+        <v>2194922.637417166</v>
       </c>
     </row>
     <row r="9">
@@ -9654,28 +9654,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1623.198978166085</v>
+        <v>1715.790637271118</v>
       </c>
       <c r="AB9" t="n">
-        <v>2220.93245241174</v>
+        <v>2347.620445254951</v>
       </c>
       <c r="AC9" t="n">
-        <v>2008.969776251837</v>
+        <v>2123.566844865807</v>
       </c>
       <c r="AD9" t="n">
-        <v>1623198.978166085</v>
+        <v>1715790.637271118</v>
       </c>
       <c r="AE9" t="n">
-        <v>2220932.45241174</v>
+        <v>2347620.445254951</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.446222270636972e-06</v>
+        <v>2.117214998845097e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.73958333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>2008969.776251837</v>
+        <v>2123566.844865807</v>
       </c>
     </row>
     <row r="10">
@@ -9760,28 +9760,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1576.384284320379</v>
+        <v>1668.80535122482</v>
       </c>
       <c r="AB10" t="n">
-        <v>2156.878522973515</v>
+        <v>2283.33310404188</v>
       </c>
       <c r="AC10" t="n">
-        <v>1951.029063938942</v>
+        <v>2065.414997270261</v>
       </c>
       <c r="AD10" t="n">
-        <v>1576384.284320379</v>
+        <v>1668805.35122482</v>
       </c>
       <c r="AE10" t="n">
-        <v>2156878.522973516</v>
+        <v>2283333.10404188</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.464181203143056e-06</v>
+        <v>2.143506200437768e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.47291666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>1951029.063938942</v>
+        <v>2065414.997270261</v>
       </c>
     </row>
     <row r="11">
@@ -9866,28 +9866,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1556.921512514425</v>
+        <v>1649.342579418866</v>
       </c>
       <c r="AB11" t="n">
-        <v>2130.248699951716</v>
+        <v>2256.703281020081</v>
       </c>
       <c r="AC11" t="n">
-        <v>1926.940753851152</v>
+        <v>2041.326687182471</v>
       </c>
       <c r="AD11" t="n">
-        <v>1556921.512514425</v>
+        <v>1649342.579418866</v>
       </c>
       <c r="AE11" t="n">
-        <v>2130248.699951716</v>
+        <v>2256703.281020081</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.467501341925693e-06</v>
+        <v>2.148366758715405e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.42291666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1926940.753851152</v>
+        <v>2041326.687182471</v>
       </c>
     </row>
     <row r="12">
@@ -9972,28 +9972,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1523.266273934466</v>
+        <v>1615.687340838907</v>
       </c>
       <c r="AB12" t="n">
-        <v>2084.20011776228</v>
+        <v>2210.654698830645</v>
       </c>
       <c r="AC12" t="n">
-        <v>1885.286983716285</v>
+        <v>1999.672917047604</v>
       </c>
       <c r="AD12" t="n">
-        <v>1523266.273934466</v>
+        <v>1615687.340838907</v>
       </c>
       <c r="AE12" t="n">
-        <v>2084200.11776228</v>
+        <v>2210654.698830645</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.47836725066887e-06</v>
+        <v>2.164274040351307e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.26875</v>
       </c>
       <c r="AH12" t="n">
-        <v>1885286.983716285</v>
+        <v>1999672.917047604</v>
       </c>
     </row>
     <row r="13">
@@ -10078,28 +10078,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1491.545949388188</v>
+        <v>1583.967016292629</v>
       </c>
       <c r="AB13" t="n">
-        <v>2040.798970316108</v>
+        <v>2167.253551384472</v>
       </c>
       <c r="AC13" t="n">
-        <v>1846.027980868482</v>
+        <v>1960.413914199801</v>
       </c>
       <c r="AD13" t="n">
-        <v>1491545.949388188</v>
+        <v>1583967.016292629</v>
       </c>
       <c r="AE13" t="n">
-        <v>2040798.970316108</v>
+        <v>2167253.551384472</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.486667597625463e-06</v>
+        <v>2.176425436045398e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.15</v>
       </c>
       <c r="AH13" t="n">
-        <v>1846027.980868482</v>
+        <v>1960413.914199801</v>
       </c>
     </row>
     <row r="14">
@@ -10184,28 +10184,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1459.1670643316</v>
+        <v>1543.341389390182</v>
       </c>
       <c r="AB14" t="n">
-        <v>1996.496751326091</v>
+        <v>2111.667776380378</v>
       </c>
       <c r="AC14" t="n">
-        <v>1805.953903480318</v>
+        <v>1910.133167546972</v>
       </c>
       <c r="AD14" t="n">
-        <v>1459167.0643316</v>
+        <v>1543341.389390182</v>
       </c>
       <c r="AE14" t="n">
-        <v>1996496.751326092</v>
+        <v>2111667.776380378</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.494213367586002e-06</v>
+        <v>2.187472159403663e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>21.04166666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>1805953.903480318</v>
+        <v>1910133.167546972</v>
       </c>
     </row>
     <row r="15">
@@ -10290,28 +10290,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1426.789082403702</v>
+        <v>1519.295400654163</v>
       </c>
       <c r="AB15" t="n">
-        <v>1952.195768036591</v>
+        <v>2078.766993757605</v>
       </c>
       <c r="AC15" t="n">
-        <v>1765.880943859147</v>
+        <v>1880.372389441178</v>
       </c>
       <c r="AD15" t="n">
-        <v>1426789.082403702</v>
+        <v>1519295.400654163</v>
       </c>
       <c r="AE15" t="n">
-        <v>1952195.768036591</v>
+        <v>2078766.993757605</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.498740829562326e-06</v>
+        <v>2.194100193418623e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>21</v>
+        <v>20.97916666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>1765880.943859147</v>
+        <v>1880372.389441178</v>
       </c>
     </row>
     <row r="16">
@@ -10396,28 +10396,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1414.187334883967</v>
+        <v>1506.693653134429</v>
       </c>
       <c r="AB16" t="n">
-        <v>1934.953501130226</v>
+        <v>2061.52472685124</v>
       </c>
       <c r="AC16" t="n">
-        <v>1750.284254706652</v>
+        <v>1864.775700288683</v>
       </c>
       <c r="AD16" t="n">
-        <v>1414187.334883967</v>
+        <v>1506693.653134429</v>
       </c>
       <c r="AE16" t="n">
-        <v>1934953.501130226</v>
+        <v>2061524.72685124</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.50145730674812e-06</v>
+        <v>2.198077013827598e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>21</v>
+        <v>20.93958333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>1750284.254706652</v>
+        <v>1864775.700288683</v>
       </c>
     </row>
     <row r="17">
@@ -10502,28 +10502,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1417.091430082352</v>
+        <v>1509.597748332814</v>
       </c>
       <c r="AB17" t="n">
-        <v>1938.927012300294</v>
+        <v>2065.498238021308</v>
       </c>
       <c r="AC17" t="n">
-        <v>1753.878539547507</v>
+        <v>1868.369985129538</v>
       </c>
       <c r="AD17" t="n">
-        <v>1417091.430082352</v>
+        <v>1509597.748332814</v>
       </c>
       <c r="AE17" t="n">
-        <v>1938927.012300294</v>
+        <v>2065498.238021308</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.501608222147331e-06</v>
+        <v>2.198297948294764e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>21</v>
+        <v>20.9375</v>
       </c>
       <c r="AH17" t="n">
-        <v>1753878.539547507</v>
+        <v>1868369.985129538</v>
       </c>
     </row>
     <row r="18">
@@ -10608,28 +10608,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1422.212131328894</v>
+        <v>1514.718449579356</v>
       </c>
       <c r="AB18" t="n">
-        <v>1945.933381655208</v>
+        <v>2072.504607376222</v>
       </c>
       <c r="AC18" t="n">
-        <v>1760.216230844689</v>
+        <v>1874.707676426721</v>
       </c>
       <c r="AD18" t="n">
-        <v>1422212.131328894</v>
+        <v>1514718.449579356</v>
       </c>
       <c r="AE18" t="n">
-        <v>1945933.381655209</v>
+        <v>2072504.607376222</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.502060968344963e-06</v>
+        <v>2.198960751696259e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>21</v>
+        <v>20.93125</v>
       </c>
       <c r="AH18" t="n">
-        <v>1760216.230844689</v>
+        <v>1874707.676426721</v>
       </c>
     </row>
   </sheetData>
@@ -10905,28 +10905,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2019.635232368179</v>
+        <v>2136.144563381777</v>
       </c>
       <c r="AB2" t="n">
-        <v>2763.35402494423</v>
+        <v>2922.767231665954</v>
       </c>
       <c r="AC2" t="n">
-        <v>2499.623395195285</v>
+        <v>2643.822429205328</v>
       </c>
       <c r="AD2" t="n">
-        <v>2019635.232368179</v>
+        <v>2136144.563381777</v>
       </c>
       <c r="AE2" t="n">
-        <v>2763354.02494423</v>
+        <v>2922767.231665954</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.181996796035218e-06</v>
+        <v>1.828694940776627e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.67916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2499623.395195285</v>
+        <v>2643822.429205328</v>
       </c>
     </row>
     <row r="3">
@@ -11011,28 +11011,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1347.07681013741</v>
+        <v>1447.880881973385</v>
       </c>
       <c r="AB3" t="n">
-        <v>1843.129920464592</v>
+        <v>1981.054498712357</v>
       </c>
       <c r="AC3" t="n">
-        <v>1667.224187704541</v>
+        <v>1791.985437782701</v>
       </c>
       <c r="AD3" t="n">
-        <v>1347076.81013741</v>
+        <v>1447880.881973385</v>
       </c>
       <c r="AE3" t="n">
-        <v>1843129.920464592</v>
+        <v>1981054.498712357</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.474001703333276e-06</v>
+        <v>2.280462575383647e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.80208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1667224.187704541</v>
+        <v>1791985.437782701</v>
       </c>
     </row>
     <row r="4">
@@ -11117,28 +11117,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1174.095495217726</v>
+        <v>1259.450419948344</v>
       </c>
       <c r="AB4" t="n">
-        <v>1606.449253994462</v>
+        <v>1723.23562760441</v>
       </c>
       <c r="AC4" t="n">
-        <v>1453.131991858919</v>
+        <v>1558.772437882238</v>
       </c>
       <c r="AD4" t="n">
-        <v>1174095.495217726</v>
+        <v>1259450.419948344</v>
       </c>
       <c r="AE4" t="n">
-        <v>1606449.253994462</v>
+        <v>1723235.62760441</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.573357467638843e-06</v>
+        <v>2.434178206535978e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.3</v>
       </c>
       <c r="AH4" t="n">
-        <v>1453131.991858919</v>
+        <v>1558772.437882238</v>
       </c>
     </row>
     <row r="5">
@@ -11223,28 +11223,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1070.973799709135</v>
+        <v>1156.413975785773</v>
       </c>
       <c r="AB5" t="n">
-        <v>1465.353600791483</v>
+        <v>1582.256619054081</v>
       </c>
       <c r="AC5" t="n">
-        <v>1325.502309768639</v>
+        <v>1431.248268042671</v>
       </c>
       <c r="AD5" t="n">
-        <v>1070973.799709135</v>
+        <v>1156413.975785773</v>
       </c>
       <c r="AE5" t="n">
-        <v>1465353.600791483</v>
+        <v>1582256.619054081</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.623540548593181e-06</v>
+        <v>2.511817627016308e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.61041666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1325502.309768639</v>
+        <v>1431248.268042671</v>
       </c>
     </row>
     <row r="6">
@@ -11329,28 +11329,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1049.042108223765</v>
+        <v>1134.311692099812</v>
       </c>
       <c r="AB6" t="n">
-        <v>1435.345692943259</v>
+        <v>1552.01529943101</v>
       </c>
       <c r="AC6" t="n">
-        <v>1298.358314529086</v>
+        <v>1403.893137520467</v>
       </c>
       <c r="AD6" t="n">
-        <v>1049042.108223765</v>
+        <v>1134311.692099812</v>
       </c>
       <c r="AE6" t="n">
-        <v>1435345.692943259</v>
+        <v>1552015.29943101</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.635833719430989e-06</v>
+        <v>2.530836679684308e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.44583333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1298358.314529086</v>
+        <v>1403893.137520467</v>
       </c>
     </row>
     <row r="7">
@@ -11435,28 +11435,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1056.086262452484</v>
+        <v>1141.35584632853</v>
       </c>
       <c r="AB7" t="n">
-        <v>1444.983815525143</v>
+        <v>1561.653422012894</v>
       </c>
       <c r="AC7" t="n">
-        <v>1307.076588218946</v>
+        <v>1412.611411210326</v>
       </c>
       <c r="AD7" t="n">
-        <v>1056086.262452484</v>
+        <v>1141355.84632853</v>
       </c>
       <c r="AE7" t="n">
-        <v>1444983.815525143</v>
+        <v>1561653.422012894</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.636002119031506e-06</v>
+        <v>2.531097214652363e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.44583333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1307076.588218946</v>
+        <v>1412611.411210326</v>
       </c>
     </row>
   </sheetData>
@@ -11732,28 +11732,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3002.701881280327</v>
+        <v>3138.981543633965</v>
       </c>
       <c r="AB2" t="n">
-        <v>4108.429183825727</v>
+        <v>4294.893030092365</v>
       </c>
       <c r="AC2" t="n">
-        <v>3716.326468737819</v>
+        <v>3884.994467220414</v>
       </c>
       <c r="AD2" t="n">
-        <v>3002701.881280327</v>
+        <v>3138981.543633964</v>
       </c>
       <c r="AE2" t="n">
-        <v>4108429.183825727</v>
+        <v>4294893.030092365</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.806312467783985e-07</v>
+        <v>1.482022088519431e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.22291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3716326.468737819</v>
+        <v>3884994.467220414</v>
       </c>
     </row>
     <row r="3">
@@ -11838,28 +11838,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1774.626363887394</v>
+        <v>1878.734823339481</v>
       </c>
       <c r="AB3" t="n">
-        <v>2428.122082060406</v>
+        <v>2570.56786922383</v>
       </c>
       <c r="AC3" t="n">
-        <v>2196.385518439306</v>
+        <v>2325.236479599771</v>
       </c>
       <c r="AD3" t="n">
-        <v>1774626.363887394</v>
+        <v>1878734.823339481</v>
       </c>
       <c r="AE3" t="n">
-        <v>2428122.082060406</v>
+        <v>2570567.86922383</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.323457481893305e-06</v>
+        <v>2.000133309871386e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.36041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2196385.518439306</v>
+        <v>2325236.479599771</v>
       </c>
     </row>
     <row r="4">
@@ -11944,28 +11944,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1513.888003827465</v>
+        <v>1609.974997767808</v>
       </c>
       <c r="AB4" t="n">
-        <v>2071.368354861805</v>
+        <v>2202.838819029977</v>
       </c>
       <c r="AC4" t="n">
-        <v>1873.679866257539</v>
+        <v>1992.602973845456</v>
       </c>
       <c r="AD4" t="n">
-        <v>1513888.003827465</v>
+        <v>1609974.997767808</v>
       </c>
       <c r="AE4" t="n">
-        <v>2071368.354861805</v>
+        <v>2202838.819029977</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.442190064261578e-06</v>
+        <v>2.179573145461795e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.27291666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1873679.866257539</v>
+        <v>1992602.973845456</v>
       </c>
     </row>
     <row r="5">
@@ -12050,28 +12050,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1387.366746362598</v>
+        <v>1475.517615645768</v>
       </c>
       <c r="AB5" t="n">
-        <v>1898.256388674432</v>
+        <v>2018.868296969549</v>
       </c>
       <c r="AC5" t="n">
-        <v>1717.089463158918</v>
+        <v>1826.190340206226</v>
       </c>
       <c r="AD5" t="n">
-        <v>1387366.746362598</v>
+        <v>1475517.615645768</v>
       </c>
       <c r="AE5" t="n">
-        <v>1898256.388674432</v>
+        <v>2018868.296969549</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.503409034817811e-06</v>
+        <v>2.272093006417502e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.325</v>
       </c>
       <c r="AH5" t="n">
-        <v>1717089.463158918</v>
+        <v>1826190.340206226</v>
       </c>
     </row>
     <row r="6">
@@ -12156,28 +12156,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1302.635541933714</v>
+        <v>1398.722446365505</v>
       </c>
       <c r="AB6" t="n">
-        <v>1782.323416697913</v>
+        <v>1913.793758396537</v>
       </c>
       <c r="AC6" t="n">
-        <v>1612.22097131489</v>
+        <v>1731.143968121581</v>
       </c>
       <c r="AD6" t="n">
-        <v>1302635.541933713</v>
+        <v>1398722.446365505</v>
       </c>
       <c r="AE6" t="n">
-        <v>1782323.416697913</v>
+        <v>1913793.758396537</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.53981821204336e-06</v>
+        <v>2.327117976354316e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.79791666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1612220.97131489</v>
+        <v>1731143.968121581</v>
       </c>
     </row>
     <row r="7">
@@ -12262,28 +12262,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1238.898000479814</v>
+        <v>1326.963528908412</v>
       </c>
       <c r="AB7" t="n">
-        <v>1695.114900578813</v>
+        <v>1815.610041751733</v>
       </c>
       <c r="AC7" t="n">
-        <v>1533.335513576275</v>
+        <v>1642.330767591645</v>
       </c>
       <c r="AD7" t="n">
-        <v>1238898.000479814</v>
+        <v>1326963.528908412</v>
       </c>
       <c r="AE7" t="n">
-        <v>1695114.900578813</v>
+        <v>1815610.041751733</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.566883441131379e-06</v>
+        <v>2.368021493829471e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.42083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1533335.513576275</v>
+        <v>1642330.767591645</v>
       </c>
     </row>
     <row r="8">
@@ -12368,28 +12368,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1192.419315700751</v>
+        <v>1280.484844129349</v>
       </c>
       <c r="AB8" t="n">
-        <v>1631.520713569243</v>
+        <v>1752.015854742163</v>
       </c>
       <c r="AC8" t="n">
-        <v>1475.810666519897</v>
+        <v>1584.805920535266</v>
       </c>
       <c r="AD8" t="n">
-        <v>1192419.315700751</v>
+        <v>1280484.844129349</v>
       </c>
       <c r="AE8" t="n">
-        <v>1631520.713569243</v>
+        <v>1752015.854742163</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.581704876108151e-06</v>
+        <v>2.390421039113484e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.21875</v>
       </c>
       <c r="AH8" t="n">
-        <v>1475810.666519897</v>
+        <v>1584805.920535266</v>
       </c>
     </row>
     <row r="9">
@@ -12474,28 +12474,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1181.246643226495</v>
+        <v>1269.312171655093</v>
       </c>
       <c r="AB9" t="n">
-        <v>1616.233770186444</v>
+        <v>1736.728911359364</v>
       </c>
       <c r="AC9" t="n">
-        <v>1461.982687558192</v>
+        <v>1570.977941573562</v>
       </c>
       <c r="AD9" t="n">
-        <v>1181246.643226495</v>
+        <v>1269312.171655093</v>
       </c>
       <c r="AE9" t="n">
-        <v>1616233.770186444</v>
+        <v>1736728.911359364</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.585410234852344e-06</v>
+        <v>2.396020925434487e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.17083333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1461982.687558192</v>
+        <v>1570977.941573562</v>
       </c>
     </row>
     <row r="10">
@@ -12580,28 +12580,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1185.219435042195</v>
+        <v>1273.284963470793</v>
       </c>
       <c r="AB10" t="n">
-        <v>1621.66951921589</v>
+        <v>1742.16466038881</v>
       </c>
       <c r="AC10" t="n">
-        <v>1466.89965632939</v>
+        <v>1575.894910344759</v>
       </c>
       <c r="AD10" t="n">
-        <v>1185219.435042195</v>
+        <v>1273284.963470793</v>
       </c>
       <c r="AE10" t="n">
-        <v>1621669.51921589</v>
+        <v>1742164.660388811</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.586860157839203e-06</v>
+        <v>2.398212185299227e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.15</v>
       </c>
       <c r="AH10" t="n">
-        <v>1466899.65632939</v>
+        <v>1575894.910344759</v>
       </c>
     </row>
   </sheetData>
@@ -12877,28 +12877,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1460.025158752741</v>
+        <v>1565.763180818146</v>
       </c>
       <c r="AB2" t="n">
-        <v>1997.670833969551</v>
+        <v>2142.346260591743</v>
       </c>
       <c r="AC2" t="n">
-        <v>1807.015933324121</v>
+        <v>1937.883740282728</v>
       </c>
       <c r="AD2" t="n">
-        <v>1460025.158752741</v>
+        <v>1565763.180818146</v>
       </c>
       <c r="AE2" t="n">
-        <v>1997670.833969551</v>
+        <v>2142346.260591744</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.355627846058283e-06</v>
+        <v>2.14255353006903e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.87916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1807015.933324121</v>
+        <v>1937883.740282728</v>
       </c>
     </row>
     <row r="3">
@@ -12983,28 +12983,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1045.267219933078</v>
+        <v>1135.8876187242</v>
       </c>
       <c r="AB3" t="n">
-        <v>1430.180724247623</v>
+        <v>1554.171551763474</v>
       </c>
       <c r="AC3" t="n">
-        <v>1293.686283196682</v>
+        <v>1405.84360015664</v>
       </c>
       <c r="AD3" t="n">
-        <v>1045267.219933078</v>
+        <v>1135887.6187242</v>
       </c>
       <c r="AE3" t="n">
-        <v>1430180.724247623</v>
+        <v>1554171.551763474</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.604331600037754e-06</v>
+        <v>2.535626826386688e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.71041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1293686.283196682</v>
+        <v>1405843.60015664</v>
       </c>
     </row>
     <row r="4">
@@ -13089,28 +13089,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>946.2712915210384</v>
+        <v>1036.806349457589</v>
       </c>
       <c r="AB4" t="n">
-        <v>1294.730127602144</v>
+        <v>1418.604187995797</v>
       </c>
       <c r="AC4" t="n">
-        <v>1171.162901388942</v>
+        <v>1283.21459531696</v>
       </c>
       <c r="AD4" t="n">
-        <v>946271.2915210384</v>
+        <v>1036806.349457589</v>
       </c>
       <c r="AE4" t="n">
-        <v>1294730.127602144</v>
+        <v>1418604.187995797</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.664496221253603e-06</v>
+        <v>2.630716287661845e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.89166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1171162.901388942</v>
+        <v>1283214.59531696</v>
       </c>
     </row>
     <row r="5">
@@ -13195,28 +13195,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>952.6227046069167</v>
+        <v>1043.157762543467</v>
       </c>
       <c r="AB5" t="n">
-        <v>1303.420411190812</v>
+        <v>1427.294471584466</v>
       </c>
       <c r="AC5" t="n">
-        <v>1179.023796508797</v>
+        <v>1291.075490436816</v>
       </c>
       <c r="AD5" t="n">
-        <v>952622.7046069168</v>
+        <v>1043157.762543467</v>
       </c>
       <c r="AE5" t="n">
-        <v>1303420.411190812</v>
+        <v>1427294.471584466</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.665720501336484e-06</v>
+        <v>2.632651247629653e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1179023.796508797</v>
+        <v>1291075.490436816</v>
       </c>
     </row>
   </sheetData>
@@ -13492,28 +13492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6889.087231249864</v>
+        <v>7100.77120536028</v>
       </c>
       <c r="AB2" t="n">
-        <v>9425.95307487529</v>
+        <v>9715.588427091012</v>
       </c>
       <c r="AC2" t="n">
-        <v>8526.353342817065</v>
+        <v>8788.34630352308</v>
       </c>
       <c r="AD2" t="n">
-        <v>6889087.231249864</v>
+        <v>7100771.20536028</v>
       </c>
       <c r="AE2" t="n">
-        <v>9425953.07487529</v>
+        <v>9715588.427091012</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.35030643335089e-07</v>
+        <v>9.258024679549587e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>50</v>
+        <v>49.06041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>8526353.342817064</v>
+        <v>8788346.30352308</v>
       </c>
     </row>
     <row r="3">
@@ -13598,28 +13598,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2850.231805764991</v>
+        <v>2977.173953351004</v>
       </c>
       <c r="AB3" t="n">
-        <v>3899.812900000634</v>
+        <v>4073.500746620129</v>
       </c>
       <c r="AC3" t="n">
-        <v>3527.620230246207</v>
+        <v>3684.731552556756</v>
       </c>
       <c r="AD3" t="n">
-        <v>2850231.805764991</v>
+        <v>2977173.953351005</v>
       </c>
       <c r="AE3" t="n">
-        <v>3899812.900000634</v>
+        <v>4073500.746620129</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.061724573018322e-06</v>
+        <v>1.547873697600625e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.34791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>3527620.230246208</v>
+        <v>3684731.552556756</v>
       </c>
     </row>
     <row r="4">
@@ -13704,28 +13704,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2270.036886346775</v>
+        <v>2380.201260828499</v>
       </c>
       <c r="AB4" t="n">
-        <v>3105.964614859242</v>
+        <v>3256.69637213434</v>
       </c>
       <c r="AC4" t="n">
-        <v>2809.535711265675</v>
+        <v>2945.881841179781</v>
       </c>
       <c r="AD4" t="n">
-        <v>2270036.886346775</v>
+        <v>2380201.2608285</v>
       </c>
       <c r="AE4" t="n">
-        <v>3105964.614859242</v>
+        <v>3256696.37213434</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.216369341084381e-06</v>
+        <v>1.773328184615563e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.61666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>2809535.711265675</v>
+        <v>2945881.841179781</v>
       </c>
     </row>
     <row r="5">
@@ -13810,28 +13810,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2041.744033179818</v>
+        <v>2143.348973663081</v>
       </c>
       <c r="AB5" t="n">
-        <v>2793.604261586167</v>
+        <v>2932.624623648984</v>
       </c>
       <c r="AC5" t="n">
-        <v>2526.986591708589</v>
+        <v>2652.739045532434</v>
       </c>
       <c r="AD5" t="n">
-        <v>2041744.033179817</v>
+        <v>2143348.973663081</v>
       </c>
       <c r="AE5" t="n">
-        <v>2793604.261586167</v>
+        <v>2932624.623648984</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.29638380038355e-06</v>
+        <v>1.889980167742247e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.03541666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2526986.591708589</v>
+        <v>2652739.045532434</v>
       </c>
     </row>
     <row r="6">
@@ -13916,28 +13916,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1906.87290167821</v>
+        <v>2008.392501306901</v>
       </c>
       <c r="AB6" t="n">
-        <v>2609.067629371283</v>
+        <v>2747.971224311901</v>
       </c>
       <c r="AC6" t="n">
-        <v>2360.061876673504</v>
+        <v>2485.70870746541</v>
       </c>
       <c r="AD6" t="n">
-        <v>1906872.90167821</v>
+        <v>2008392.501306901</v>
       </c>
       <c r="AE6" t="n">
-        <v>2609067.629371283</v>
+        <v>2747971.224311901</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.34648631228116e-06</v>
+        <v>1.963023932877648e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.13958333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2360061.876673504</v>
+        <v>2485708.70746541</v>
       </c>
     </row>
     <row r="7">
@@ -14022,28 +14022,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1815.784061067749</v>
+        <v>1917.388912042461</v>
       </c>
       <c r="AB7" t="n">
-        <v>2484.435859092018</v>
+        <v>2623.456098685286</v>
       </c>
       <c r="AC7" t="n">
-        <v>2247.324787627904</v>
+        <v>2373.077130670522</v>
       </c>
       <c r="AD7" t="n">
-        <v>1815784.061067749</v>
+        <v>1917388.912042461</v>
       </c>
       <c r="AE7" t="n">
-        <v>2484435.859092018</v>
+        <v>2623456.098685286</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.380885051792953e-06</v>
+        <v>2.013173383567624e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.56458333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2247324.787627904</v>
+        <v>2373077.130670522</v>
       </c>
     </row>
     <row r="8">
@@ -14128,28 +14128,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1755.850872898749</v>
+        <v>1848.981630729572</v>
       </c>
       <c r="AB8" t="n">
-        <v>2402.432626973539</v>
+        <v>2529.858238476733</v>
       </c>
       <c r="AC8" t="n">
-        <v>2173.147828890553</v>
+        <v>2288.412118874852</v>
       </c>
       <c r="AD8" t="n">
-        <v>1755850.872898749</v>
+        <v>1848981.630729572</v>
       </c>
       <c r="AE8" t="n">
-        <v>2402432.626973539</v>
+        <v>2529858.238476733</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.404515490240184e-06</v>
+        <v>2.047623875780739e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.18333333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>2173147.828890553</v>
+        <v>2288412.118874852</v>
       </c>
     </row>
     <row r="9">
@@ -14234,28 +14234,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1700.725279352841</v>
+        <v>1802.244789472982</v>
       </c>
       <c r="AB9" t="n">
-        <v>2327.007357914481</v>
+        <v>2465.910830385551</v>
       </c>
       <c r="AC9" t="n">
-        <v>2104.921041650461</v>
+        <v>2230.567761661141</v>
       </c>
       <c r="AD9" t="n">
-        <v>1700725.279352841</v>
+        <v>1802244.789472982</v>
       </c>
       <c r="AE9" t="n">
-        <v>2327007.357914481</v>
+        <v>2465910.830385551</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.422761778155135e-06</v>
+        <v>2.074224888755422e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AH9" t="n">
-        <v>2104921.041650461</v>
+        <v>2230567.761661141</v>
       </c>
     </row>
     <row r="10">
@@ -14340,28 +14340,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1653.629561001858</v>
+        <v>1746.845570178701</v>
       </c>
       <c r="AB10" t="n">
-        <v>2262.56891835021</v>
+        <v>2390.111174506053</v>
       </c>
       <c r="AC10" t="n">
-        <v>2046.632516318286</v>
+        <v>2162.002318553297</v>
       </c>
       <c r="AD10" t="n">
-        <v>1653629.561001858</v>
+        <v>1746845.570178701</v>
       </c>
       <c r="AE10" t="n">
-        <v>2262568.918350209</v>
+        <v>2390111.174506053</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.440260267385047e-06</v>
+        <v>2.099735696280323e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.63541666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>2046632.516318286</v>
+        <v>2162002.318553297</v>
       </c>
     </row>
     <row r="11">
@@ -14446,28 +14446,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1631.333430233103</v>
+        <v>1724.549439409946</v>
       </c>
       <c r="AB11" t="n">
-        <v>2232.062368596531</v>
+        <v>2359.604624752375</v>
       </c>
       <c r="AC11" t="n">
-        <v>2019.037468856887</v>
+        <v>2134.407271091898</v>
       </c>
       <c r="AD11" t="n">
-        <v>1631333.430233103</v>
+        <v>1724549.439409946</v>
       </c>
       <c r="AE11" t="n">
-        <v>2232062.368596531</v>
+        <v>2359604.624752374</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.446541776339374e-06</v>
+        <v>2.108893422058493e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.53958333333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>2019037.468856887</v>
+        <v>2134407.271091898</v>
       </c>
     </row>
     <row r="12">
@@ -14552,28 +14552,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1595.243595435279</v>
+        <v>1688.28901241153</v>
       </c>
       <c r="AB12" t="n">
-        <v>2182.682664455007</v>
+        <v>2309.991508836004</v>
       </c>
       <c r="AC12" t="n">
-        <v>1974.37049437378</v>
+        <v>2089.52916132614</v>
       </c>
       <c r="AD12" t="n">
-        <v>1595243.595435279</v>
+        <v>1688289.01241153</v>
       </c>
       <c r="AE12" t="n">
-        <v>2182682.664455007</v>
+        <v>2309991.508836003</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.457908316351966e-06</v>
+        <v>2.125464544895181e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.37291666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1974370.49437378</v>
+        <v>2089529.16132614</v>
       </c>
     </row>
     <row r="13">
@@ -14658,28 +14658,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1565.502061762254</v>
+        <v>1658.547478738505</v>
       </c>
       <c r="AB13" t="n">
-        <v>2141.988985979712</v>
+        <v>2269.297830360709</v>
       </c>
       <c r="AC13" t="n">
-        <v>1937.560563458231</v>
+        <v>2052.719230410591</v>
       </c>
       <c r="AD13" t="n">
-        <v>1565502.061762254</v>
+        <v>1658547.478738505</v>
       </c>
       <c r="AE13" t="n">
-        <v>2141988.985979712</v>
+        <v>2269297.830360709</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.466582781098418e-06</v>
+        <v>2.138110928112653e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.24583333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1937560.563458231</v>
+        <v>2052719.230410591</v>
       </c>
     </row>
     <row r="14">
@@ -14764,28 +14764,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1538.65178121144</v>
+        <v>1631.697198187691</v>
       </c>
       <c r="AB14" t="n">
-        <v>2105.251247579312</v>
+        <v>2232.560091960308</v>
       </c>
       <c r="AC14" t="n">
-        <v>1904.329023249026</v>
+        <v>2019.487690201385</v>
       </c>
       <c r="AD14" t="n">
-        <v>1538651.78121144</v>
+        <v>1631697.198187691</v>
       </c>
       <c r="AE14" t="n">
-        <v>2105251.247579312</v>
+        <v>2232560.091960308</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.473761648474792e-06</v>
+        <v>2.148576900430561e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>21.14166666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>1904329.023249025</v>
+        <v>2019487.690201385</v>
       </c>
     </row>
     <row r="15">
@@ -14870,28 +14870,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1509.215172622788</v>
+        <v>1593.957088655743</v>
       </c>
       <c r="AB15" t="n">
-        <v>2064.974781056802</v>
+        <v>2180.922409122572</v>
       </c>
       <c r="AC15" t="n">
-        <v>1867.896486163048</v>
+        <v>1972.778235339739</v>
       </c>
       <c r="AD15" t="n">
-        <v>1509215.172622788</v>
+        <v>1593957.088655743</v>
       </c>
       <c r="AE15" t="n">
-        <v>2064974.781056802</v>
+        <v>2180922.409122572</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.479145799007073e-06</v>
+        <v>2.156426379668992e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>21.06458333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>1867896.486163048</v>
+        <v>1972778.235339739</v>
       </c>
     </row>
     <row r="16">
@@ -14976,28 +14976,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1471.035085748111</v>
+        <v>1564.165754070383</v>
       </c>
       <c r="AB16" t="n">
-        <v>2012.735101808314</v>
+        <v>2140.16059084196</v>
       </c>
       <c r="AC16" t="n">
-        <v>1820.642488583186</v>
+        <v>1935.906667786258</v>
       </c>
       <c r="AD16" t="n">
-        <v>1471035.085748111</v>
+        <v>1564165.754070383</v>
       </c>
       <c r="AE16" t="n">
-        <v>2012735.101808314</v>
+        <v>2140160.59084196</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.486324666383447e-06</v>
+        <v>2.1668923519869e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>21</v>
+        <v>20.96458333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>1820642.488583186</v>
+        <v>1935906.667786258</v>
       </c>
     </row>
     <row r="17">
@@ -15082,28 +15082,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1457.527224989431</v>
+        <v>1550.657893311704</v>
       </c>
       <c r="AB17" t="n">
-        <v>1994.253050793531</v>
+        <v>2121.678539827176</v>
       </c>
       <c r="AC17" t="n">
-        <v>1803.924338577531</v>
+        <v>1919.188517780603</v>
       </c>
       <c r="AD17" t="n">
-        <v>1457527.224989431</v>
+        <v>1550657.893311704</v>
       </c>
       <c r="AE17" t="n">
-        <v>1994253.05079353</v>
+        <v>2121678.539827176</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.489315861123603e-06</v>
+        <v>2.171253173786029e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>21</v>
+        <v>20.92083333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>1803924.338577531</v>
+        <v>1919188.517780603</v>
       </c>
     </row>
     <row r="18">
@@ -15188,28 +15188,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1447.276687024673</v>
+        <v>1540.407355346945</v>
       </c>
       <c r="AB18" t="n">
-        <v>1980.227812528329</v>
+        <v>2107.653301561974</v>
       </c>
       <c r="AC18" t="n">
-        <v>1791.237649367815</v>
+        <v>1906.501828570887</v>
       </c>
       <c r="AD18" t="n">
-        <v>1447276.687024673</v>
+        <v>1540407.355346945</v>
       </c>
       <c r="AE18" t="n">
-        <v>1980227.812528329</v>
+        <v>2107653.301561974</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.491260137704704e-06</v>
+        <v>2.174087707955462e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>21</v>
+        <v>20.89375</v>
       </c>
       <c r="AH18" t="n">
-        <v>1791237.649367815</v>
+        <v>1906501.828570887</v>
       </c>
     </row>
     <row r="19">
@@ -15294,28 +15294,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1453.452130793978</v>
+        <v>1546.58279911625</v>
       </c>
       <c r="AB19" t="n">
-        <v>1988.677327134842</v>
+        <v>2116.102816168489</v>
       </c>
       <c r="AC19" t="n">
-        <v>1798.880754159251</v>
+        <v>1914.144933362323</v>
       </c>
       <c r="AD19" t="n">
-        <v>1453452.130793978</v>
+        <v>1546582.79911625</v>
       </c>
       <c r="AE19" t="n">
-        <v>1988677.327134843</v>
+        <v>2116102.816168488</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.491110577967696e-06</v>
+        <v>2.173869666865506e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>21</v>
+        <v>20.89583333333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>1798880.754159251</v>
+        <v>1914144.933362323</v>
       </c>
     </row>
     <row r="20">
@@ -15400,28 +15400,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1459.489651633886</v>
+        <v>1552.620319956158</v>
       </c>
       <c r="AB20" t="n">
-        <v>1996.938129504626</v>
+        <v>2124.363618538272</v>
       </c>
       <c r="AC20" t="n">
-        <v>1806.353157144971</v>
+        <v>1921.617336348043</v>
       </c>
       <c r="AD20" t="n">
-        <v>1459489.651633886</v>
+        <v>1552620.319956158</v>
       </c>
       <c r="AE20" t="n">
-        <v>1996938.129504626</v>
+        <v>2124363.618538272</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.491260137704704e-06</v>
+        <v>2.174087707955462e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>21</v>
+        <v>20.89375</v>
       </c>
       <c r="AH20" t="n">
-        <v>1806353.157144971</v>
+        <v>1921617.336348043</v>
       </c>
     </row>
   </sheetData>
@@ -15697,28 +15697,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1195.21390987984</v>
+        <v>1291.703023432818</v>
       </c>
       <c r="AB2" t="n">
-        <v>1635.344400613868</v>
+        <v>1767.365062576311</v>
       </c>
       <c r="AC2" t="n">
-        <v>1479.269426239561</v>
+        <v>1598.690221516472</v>
       </c>
       <c r="AD2" t="n">
-        <v>1195213.90987984</v>
+        <v>1291703.023432818</v>
       </c>
       <c r="AE2" t="n">
-        <v>1635344.400613868</v>
+        <v>1767365.062576311</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.463573152443127e-06</v>
+        <v>2.344987980148941e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.47708333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1479269.426239561</v>
+        <v>1598690.221516472</v>
       </c>
     </row>
     <row r="3">
@@ -15803,28 +15803,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>897.6806779145335</v>
+        <v>979.3844083599947</v>
       </c>
       <c r="AB3" t="n">
-        <v>1228.246306399144</v>
+        <v>1340.036954908818</v>
       </c>
       <c r="AC3" t="n">
-        <v>1111.024202770927</v>
+        <v>1212.145708685998</v>
       </c>
       <c r="AD3" t="n">
-        <v>897680.6779145335</v>
+        <v>979384.4083599948</v>
       </c>
       <c r="AE3" t="n">
-        <v>1228246.306399144</v>
+        <v>1340036.954908818</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.672092502155277e-06</v>
+        <v>2.679084959098863e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.3</v>
       </c>
       <c r="AH3" t="n">
-        <v>1111024.202770927</v>
+        <v>1212145.708685998</v>
       </c>
     </row>
     <row r="4">
@@ -15909,28 +15909,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>900.2335349257283</v>
+        <v>981.9372653711895</v>
       </c>
       <c r="AB4" t="n">
-        <v>1231.739237985963</v>
+        <v>1343.529886495637</v>
       </c>
       <c r="AC4" t="n">
-        <v>1114.183773869461</v>
+        <v>1215.305279784531</v>
       </c>
       <c r="AD4" t="n">
-        <v>900233.5349257283</v>
+        <v>981937.2653711895</v>
       </c>
       <c r="AE4" t="n">
-        <v>1231739.237985963</v>
+        <v>1343529.886495637</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.676209193179637e-06</v>
+        <v>2.685680865121051e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.24583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1114183.773869461</v>
+        <v>1215305.279784531</v>
       </c>
     </row>
   </sheetData>
@@ -16206,28 +16206,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4291.570440845507</v>
+        <v>4464.297228397795</v>
       </c>
       <c r="AB2" t="n">
-        <v>5871.916007890715</v>
+        <v>6108.248418787833</v>
       </c>
       <c r="AC2" t="n">
-        <v>5311.508585383281</v>
+        <v>5525.28576267899</v>
       </c>
       <c r="AD2" t="n">
-        <v>4291570.440845506</v>
+        <v>4464297.228397795</v>
       </c>
       <c r="AE2" t="n">
-        <v>5871916.007890715</v>
+        <v>6108248.418787832</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.170979829612828e-07</v>
+        <v>1.213262381388274e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.64791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>5311508.585383281</v>
+        <v>5525285.76267899</v>
       </c>
     </row>
     <row r="3">
@@ -16312,28 +16312,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2203.603931308295</v>
+        <v>2318.783569961344</v>
       </c>
       <c r="AB3" t="n">
-        <v>3015.068114960459</v>
+        <v>3172.661977932602</v>
       </c>
       <c r="AC3" t="n">
-        <v>2727.314245743195</v>
+        <v>2869.867571617648</v>
       </c>
       <c r="AD3" t="n">
-        <v>2203603.931308295</v>
+        <v>2318783.569961344</v>
       </c>
       <c r="AE3" t="n">
-        <v>3015068.114960459</v>
+        <v>3172661.977932603</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.200846379145573e-06</v>
+        <v>1.783068576871864e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.97708333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>2727314.245743196</v>
+        <v>2869867.571617648</v>
       </c>
     </row>
     <row r="4">
@@ -16418,28 +16418,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1834.928930053043</v>
+        <v>1933.642232570697</v>
       </c>
       <c r="AB4" t="n">
-        <v>2510.630713449707</v>
+        <v>2645.694608877914</v>
       </c>
       <c r="AC4" t="n">
-        <v>2271.019641850404</v>
+        <v>2393.193228662311</v>
       </c>
       <c r="AD4" t="n">
-        <v>1834928.930053043</v>
+        <v>1933642.232570697</v>
       </c>
       <c r="AE4" t="n">
-        <v>2510630.713449707</v>
+        <v>2645694.608877914</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.336277843114989e-06</v>
+        <v>1.984163064824135e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.24166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>2271019.641850404</v>
+        <v>2393193.228662311</v>
       </c>
     </row>
     <row r="5">
@@ -16524,28 +16524,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1672.134618203291</v>
+        <v>1762.700048753544</v>
       </c>
       <c r="AB5" t="n">
-        <v>2287.888353998717</v>
+        <v>2411.803971542383</v>
       </c>
       <c r="AC5" t="n">
-        <v>2069.535500564552</v>
+        <v>2181.624785486512</v>
       </c>
       <c r="AD5" t="n">
-        <v>1672134.618203291</v>
+        <v>1762700.048753544</v>
       </c>
       <c r="AE5" t="n">
-        <v>2287888.353998717</v>
+        <v>2411803.971542384</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.406092685046409e-06</v>
+        <v>2.087827157924675e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.0375</v>
       </c>
       <c r="AH5" t="n">
-        <v>2069535.500564551</v>
+        <v>2181624.785486512</v>
       </c>
     </row>
     <row r="6">
@@ -16630,28 +16630,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1571.331489754305</v>
+        <v>1661.811579449987</v>
       </c>
       <c r="AB6" t="n">
-        <v>2149.965066534649</v>
+        <v>2273.763916956118</v>
       </c>
       <c r="AC6" t="n">
-        <v>1944.775418079505</v>
+        <v>2056.759079969526</v>
       </c>
       <c r="AD6" t="n">
-        <v>1571331.489754305</v>
+        <v>1661811.579449987</v>
       </c>
       <c r="AE6" t="n">
-        <v>2149965.06653465</v>
+        <v>2273763.916956118</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.448696842483401e-06</v>
+        <v>2.151087651264425e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.3625</v>
       </c>
       <c r="AH6" t="n">
-        <v>1944775.418079505</v>
+        <v>2056759.079969526</v>
       </c>
     </row>
     <row r="7">
@@ -16736,28 +16736,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1494.50176017847</v>
+        <v>1593.129632333001</v>
       </c>
       <c r="AB7" t="n">
-        <v>2044.84324104054</v>
+        <v>2179.790246877001</v>
       </c>
       <c r="AC7" t="n">
-        <v>1849.686272071144</v>
+        <v>1971.754125069886</v>
       </c>
       <c r="AD7" t="n">
-        <v>1494501.76017847</v>
+        <v>1593129.632333001</v>
       </c>
       <c r="AE7" t="n">
-        <v>2044843.24104054</v>
+        <v>2179790.246877001</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.478395360988749e-06</v>
+        <v>2.195185294431915e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.9125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1849686.272071145</v>
+        <v>1971754.125069886</v>
       </c>
     </row>
     <row r="8">
@@ -16842,28 +16842,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1441.071795062457</v>
+        <v>1531.637136104159</v>
       </c>
       <c r="AB8" t="n">
-        <v>1971.738005605112</v>
+        <v>2095.653500679229</v>
       </c>
       <c r="AC8" t="n">
-        <v>1783.55809770183</v>
+        <v>1895.647271842564</v>
       </c>
       <c r="AD8" t="n">
-        <v>1441071.795062457</v>
+        <v>1531637.136104159</v>
       </c>
       <c r="AE8" t="n">
-        <v>1971738.005605112</v>
+        <v>2095653.500679229</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.500319398209975e-06</v>
+        <v>2.227739051953465e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.58958333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1783558.09770183</v>
+        <v>1895647.271842564</v>
       </c>
     </row>
     <row r="9">
@@ -16948,28 +16948,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1405.545642298183</v>
+        <v>1495.940391139293</v>
       </c>
       <c r="AB9" t="n">
-        <v>1923.129556089786</v>
+        <v>2046.811639389058</v>
       </c>
       <c r="AC9" t="n">
-        <v>1739.588770385861</v>
+        <v>1851.466809243944</v>
       </c>
       <c r="AD9" t="n">
-        <v>1405545.642298183</v>
+        <v>1495940.391139293</v>
       </c>
       <c r="AE9" t="n">
-        <v>1923129.556089786</v>
+        <v>2046811.639389057</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.510737203130699e-06</v>
+        <v>2.243207858719025e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.44166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1739588.770385861</v>
+        <v>1851466.809243944</v>
       </c>
     </row>
     <row r="10">
@@ -17054,28 +17054,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1357.817804553674</v>
+        <v>1448.212553394784</v>
       </c>
       <c r="AB10" t="n">
-        <v>1857.826222884155</v>
+        <v>1981.508306183425</v>
       </c>
       <c r="AC10" t="n">
-        <v>1680.51789564757</v>
+        <v>1792.395934505653</v>
       </c>
       <c r="AD10" t="n">
-        <v>1357817.804553674</v>
+        <v>1448212.553394784</v>
       </c>
       <c r="AE10" t="n">
-        <v>1857826.222884154</v>
+        <v>1981508.306183425</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.526130676073262e-06</v>
+        <v>2.266064752297986e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.225</v>
       </c>
       <c r="AH10" t="n">
-        <v>1680517.89564757</v>
+        <v>1792395.934505653</v>
       </c>
     </row>
     <row r="11">
@@ -17160,28 +17160,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1322.983136553384</v>
+        <v>1405.315354281664</v>
       </c>
       <c r="AB11" t="n">
-        <v>1810.163893329067</v>
+        <v>1922.814465865996</v>
       </c>
       <c r="AC11" t="n">
-        <v>1637.404391930721</v>
+        <v>1739.303751930797</v>
       </c>
       <c r="AD11" t="n">
-        <v>1322983.136553384</v>
+        <v>1405315.354281664</v>
       </c>
       <c r="AE11" t="n">
-        <v>1810163.893329067</v>
+        <v>1922814.465865996</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.535771032865574e-06</v>
+        <v>2.280379170498951e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.09375</v>
       </c>
       <c r="AH11" t="n">
-        <v>1637404.391930721</v>
+        <v>1739303.751930797</v>
       </c>
     </row>
     <row r="12">
@@ -17266,28 +17266,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1303.485304788407</v>
+        <v>1385.817522516687</v>
       </c>
       <c r="AB12" t="n">
-        <v>1783.486099724596</v>
+        <v>1896.136672261525</v>
       </c>
       <c r="AC12" t="n">
-        <v>1613.272689505343</v>
+        <v>1715.172049505418</v>
       </c>
       <c r="AD12" t="n">
-        <v>1303485.304788407</v>
+        <v>1385817.522516687</v>
       </c>
       <c r="AE12" t="n">
-        <v>1783486.099724596</v>
+        <v>1896136.672261525</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.541679638641507e-06</v>
+        <v>2.289152523589865e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.0125</v>
       </c>
       <c r="AH12" t="n">
-        <v>1613272.689505343</v>
+        <v>1715172.049505418</v>
       </c>
     </row>
     <row r="13">
@@ -17372,28 +17372,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1304.945389393717</v>
+        <v>1387.277607121997</v>
       </c>
       <c r="AB13" t="n">
-        <v>1785.483851895968</v>
+        <v>1898.134424432897</v>
       </c>
       <c r="AC13" t="n">
-        <v>1615.079779013342</v>
+        <v>1716.979139013417</v>
       </c>
       <c r="AD13" t="n">
-        <v>1304945.389393717</v>
+        <v>1387277.607121997</v>
       </c>
       <c r="AE13" t="n">
-        <v>1785483.851895968</v>
+        <v>1898134.424432897</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.541990617892872e-06</v>
+        <v>2.289614279015703e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.00625</v>
       </c>
       <c r="AH13" t="n">
-        <v>1615079.779013342</v>
+        <v>1716979.139013417</v>
       </c>
     </row>
   </sheetData>
@@ -17669,28 +17669,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5416.679489538195</v>
+        <v>5608.754448626924</v>
       </c>
       <c r="AB2" t="n">
-        <v>7411.339844620212</v>
+        <v>7674.145277394576</v>
       </c>
       <c r="AC2" t="n">
-        <v>6704.011971730181</v>
+        <v>6941.735622850292</v>
       </c>
       <c r="AD2" t="n">
-        <v>5416679.489538195</v>
+        <v>5608754.448626924</v>
       </c>
       <c r="AE2" t="n">
-        <v>7411339.844620212</v>
+        <v>7674145.277394576</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.22285921949092e-07</v>
+        <v>1.062079901720226e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.94166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>6704011.971730181</v>
+        <v>6941735.622850292</v>
       </c>
     </row>
     <row r="3">
@@ -17775,28 +17775,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2520.213419018355</v>
+        <v>2637.147253375389</v>
       </c>
       <c r="AB3" t="n">
-        <v>3448.267183870188</v>
+        <v>3608.261214794175</v>
       </c>
       <c r="AC3" t="n">
-        <v>3119.169403514875</v>
+        <v>3263.893828680503</v>
       </c>
       <c r="AD3" t="n">
-        <v>2520213.419018355</v>
+        <v>2637147.253375389</v>
       </c>
       <c r="AE3" t="n">
-        <v>3448267.183870187</v>
+        <v>3608261.214794175</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.128447969600701e-06</v>
+        <v>1.659317830002471e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.125</v>
       </c>
       <c r="AH3" t="n">
-        <v>3119169.403514875</v>
+        <v>3263893.828680503</v>
       </c>
     </row>
     <row r="4">
@@ -17881,28 +17881,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2046.20637548801</v>
+        <v>2154.781614214845</v>
       </c>
       <c r="AB4" t="n">
-        <v>2799.709835196885</v>
+        <v>2948.267266824412</v>
       </c>
       <c r="AC4" t="n">
-        <v>2532.509457943127</v>
+        <v>2666.888776797787</v>
       </c>
       <c r="AD4" t="n">
-        <v>2046206.37548801</v>
+        <v>2154781.614214845</v>
       </c>
       <c r="AE4" t="n">
-        <v>2799709.835196885</v>
+        <v>2948267.266824412</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.273636428494918e-06</v>
+        <v>1.872809107441698e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.92083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2532509.457943127</v>
+        <v>2666888.776797787</v>
       </c>
     </row>
     <row r="5">
@@ -17987,28 +17987,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1852.765969292127</v>
+        <v>1953.068042751887</v>
       </c>
       <c r="AB5" t="n">
-        <v>2535.036137451256</v>
+        <v>2672.273859374079</v>
       </c>
       <c r="AC5" t="n">
-        <v>2293.095846438473</v>
+        <v>2417.235792795334</v>
       </c>
       <c r="AD5" t="n">
-        <v>1852765.969292127</v>
+        <v>1953068.042751887</v>
       </c>
       <c r="AE5" t="n">
-        <v>2535036.137451256</v>
+        <v>2672273.859374079</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.348744414050899e-06</v>
+        <v>1.983251079926e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.53333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2293095.846438473</v>
+        <v>2417235.792795334</v>
       </c>
     </row>
     <row r="6">
@@ -18093,28 +18093,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1740.785253406784</v>
+        <v>1841.001986011973</v>
       </c>
       <c r="AB6" t="n">
-        <v>2381.81918173641</v>
+        <v>2518.940136537036</v>
       </c>
       <c r="AC6" t="n">
-        <v>2154.501701935703</v>
+        <v>2278.536025260627</v>
       </c>
       <c r="AD6" t="n">
-        <v>1740785.253406784</v>
+        <v>1841001.986011973</v>
       </c>
       <c r="AE6" t="n">
-        <v>2381819.18173641</v>
+        <v>2518940.136537036</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.393230279735171e-06</v>
+        <v>2.048664986549562e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.78125</v>
       </c>
       <c r="AH6" t="n">
-        <v>2154501.701935703</v>
+        <v>2278536.025260626</v>
       </c>
     </row>
     <row r="7">
@@ -18199,28 +18199,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1662.337032440302</v>
+        <v>1754.195348432395</v>
       </c>
       <c r="AB7" t="n">
-        <v>2274.482864918817</v>
+        <v>2400.167465362089</v>
       </c>
       <c r="AC7" t="n">
-        <v>2057.409412547715</v>
+        <v>2171.098851124126</v>
       </c>
       <c r="AD7" t="n">
-        <v>1662337.032440302</v>
+        <v>1754195.348432395</v>
       </c>
       <c r="AE7" t="n">
-        <v>2274482.864918817</v>
+        <v>2400167.465362089</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.427204074418708e-06</v>
+        <v>2.098621497429884e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.2375</v>
       </c>
       <c r="AH7" t="n">
-        <v>2057409.412547715</v>
+        <v>2171098.851124126</v>
       </c>
     </row>
     <row r="8">
@@ -18305,28 +18305,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1599.724940730979</v>
+        <v>1699.856332481596</v>
       </c>
       <c r="AB8" t="n">
-        <v>2188.814238791585</v>
+        <v>2325.818426470013</v>
       </c>
       <c r="AC8" t="n">
-        <v>1979.916879861394</v>
+        <v>2103.845580154377</v>
       </c>
       <c r="AD8" t="n">
-        <v>1599724.940730979</v>
+        <v>1699856.332481596</v>
       </c>
       <c r="AE8" t="n">
-        <v>2188814.238791585</v>
+        <v>2325818.426470013</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.448837611840511e-06</v>
+        <v>2.130432369829014e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.90625</v>
       </c>
       <c r="AH8" t="n">
-        <v>1979916.879861394</v>
+        <v>2103845.580154377</v>
       </c>
     </row>
     <row r="9">
@@ -18411,28 +18411,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1549.661695315044</v>
+        <v>1641.605262653157</v>
       </c>
       <c r="AB9" t="n">
-        <v>2120.315497778992</v>
+        <v>2246.116742874914</v>
       </c>
       <c r="AC9" t="n">
-        <v>1917.955562552456</v>
+        <v>2031.750513379579</v>
       </c>
       <c r="AD9" t="n">
-        <v>1549661.695315043</v>
+        <v>1641605.262653157</v>
       </c>
       <c r="AE9" t="n">
-        <v>2120315.497778992</v>
+        <v>2246116.742874913</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.469100009566567e-06</v>
+        <v>2.160227060174677e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.60625</v>
       </c>
       <c r="AH9" t="n">
-        <v>1917955.562552456</v>
+        <v>2031750.513379579</v>
       </c>
     </row>
     <row r="10">
@@ -18517,28 +18517,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1526.632757828889</v>
+        <v>1618.576325167003</v>
       </c>
       <c r="AB10" t="n">
-        <v>2088.806289545417</v>
+        <v>2214.607534641338</v>
       </c>
       <c r="AC10" t="n">
-        <v>1889.453548929241</v>
+        <v>2003.248499756365</v>
       </c>
       <c r="AD10" t="n">
-        <v>1526632.757828889</v>
+        <v>1618576.325167003</v>
       </c>
       <c r="AE10" t="n">
-        <v>2088806.289545417</v>
+        <v>2214607.534641338</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.47412752178431e-06</v>
+        <v>2.167619727704052e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.53125</v>
       </c>
       <c r="AH10" t="n">
-        <v>1889453.548929241</v>
+        <v>2003248.499756365</v>
       </c>
     </row>
     <row r="11">
@@ -18623,28 +18623,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1480.696058964531</v>
+        <v>1572.469034102053</v>
       </c>
       <c r="AB11" t="n">
-        <v>2025.953671575078</v>
+        <v>2151.521504896152</v>
       </c>
       <c r="AC11" t="n">
-        <v>1832.599496603789</v>
+        <v>1946.18331214826</v>
       </c>
       <c r="AD11" t="n">
-        <v>1480696.058964531</v>
+        <v>1572469.034102053</v>
       </c>
       <c r="AE11" t="n">
-        <v>2025953.671575078</v>
+        <v>2151521.504896152</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.489819453857872e-06</v>
+        <v>2.190693811204829e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.30416666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1832599.496603789</v>
+        <v>1946183.31214826</v>
       </c>
     </row>
     <row r="12">
@@ -18729,28 +18729,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1447.108471035389</v>
+        <v>1538.881446172911</v>
       </c>
       <c r="AB12" t="n">
-        <v>1979.997651990625</v>
+        <v>2105.565485311699</v>
       </c>
       <c r="AC12" t="n">
-        <v>1791.029455028797</v>
+        <v>1904.613270573269</v>
       </c>
       <c r="AD12" t="n">
-        <v>1447108.471035389</v>
+        <v>1538881.446172911</v>
       </c>
       <c r="AE12" t="n">
-        <v>1979997.651990625</v>
+        <v>2105565.485311699</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.499112734017942e-06</v>
+        <v>2.204359045122765e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.17083333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1791029.455028797</v>
+        <v>1904613.270573269</v>
       </c>
     </row>
     <row r="13">
@@ -18835,28 +18835,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1414.118041560271</v>
+        <v>1497.703192285289</v>
       </c>
       <c r="AB13" t="n">
-        <v>1934.858690947739</v>
+        <v>2049.223581686307</v>
       </c>
       <c r="AC13" t="n">
-        <v>1750.198493074914</v>
+        <v>1853.648559153526</v>
       </c>
       <c r="AD13" t="n">
-        <v>1414118.041560271</v>
+        <v>1497703.192285289</v>
       </c>
       <c r="AE13" t="n">
-        <v>1934858.690947739</v>
+        <v>2049223.581686307</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.507187223337348e-06</v>
+        <v>2.216232117215398e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.05833333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1750198.493074914</v>
+        <v>1853648.559153526</v>
       </c>
     </row>
     <row r="14">
@@ -18941,28 +18941,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1379.042742105522</v>
+        <v>1470.900968589064</v>
       </c>
       <c r="AB14" t="n">
-        <v>1886.867118820751</v>
+        <v>2012.551596794474</v>
       </c>
       <c r="AC14" t="n">
-        <v>1706.787169235131</v>
+        <v>1820.476497030315</v>
       </c>
       <c r="AD14" t="n">
-        <v>1379042.742105522</v>
+        <v>1470900.968589064</v>
       </c>
       <c r="AE14" t="n">
-        <v>1886867.118820751</v>
+        <v>2012551.596794474</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.513585875250839e-06</v>
+        <v>2.225640966798239e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>21</v>
+        <v>20.96875</v>
       </c>
       <c r="AH14" t="n">
-        <v>1706787.169235131</v>
+        <v>1820476.497030315</v>
       </c>
     </row>
     <row r="15">
@@ -19047,28 +19047,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1371.254241611511</v>
+        <v>1463.112468095053</v>
       </c>
       <c r="AB15" t="n">
-        <v>1876.210548840454</v>
+        <v>2001.895026814178</v>
       </c>
       <c r="AC15" t="n">
-        <v>1697.147647337164</v>
+        <v>1810.836975132348</v>
       </c>
       <c r="AD15" t="n">
-        <v>1371254.241611511</v>
+        <v>1463112.468095053</v>
       </c>
       <c r="AE15" t="n">
-        <v>1876210.548840454</v>
+        <v>2001895.026814178</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.515414061511837e-06</v>
+        <v>2.228329209536193e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>21</v>
+        <v>20.94375</v>
       </c>
       <c r="AH15" t="n">
-        <v>1697147.647337164</v>
+        <v>1810836.975132348</v>
       </c>
     </row>
     <row r="16">
@@ -19153,28 +19153,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1377.014062642268</v>
+        <v>1468.87228912581</v>
       </c>
       <c r="AB16" t="n">
-        <v>1884.091390080106</v>
+        <v>2009.775868053829</v>
       </c>
       <c r="AC16" t="n">
-        <v>1704.276352149734</v>
+        <v>1817.965679944918</v>
       </c>
       <c r="AD16" t="n">
-        <v>1377014.062642268</v>
+        <v>1468872.28912581</v>
       </c>
       <c r="AE16" t="n">
-        <v>1884091.390080106</v>
+        <v>2009775.868053829</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.515414061511837e-06</v>
+        <v>2.228329209536193e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>21</v>
+        <v>20.94583333333334</v>
       </c>
       <c r="AH16" t="n">
-        <v>1704276.352149734</v>
+        <v>1817965.679944918</v>
       </c>
     </row>
   </sheetData>
@@ -19450,28 +19450,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8850.652707913441</v>
+        <v>9090.777981546067</v>
       </c>
       <c r="AB2" t="n">
-        <v>12109.85349820782</v>
+        <v>12438.40349117142</v>
       </c>
       <c r="AC2" t="n">
-        <v>10954.10607662454</v>
+        <v>11251.29971938249</v>
       </c>
       <c r="AD2" t="n">
-        <v>8850652.707913442</v>
+        <v>9090777.981546067</v>
       </c>
       <c r="AE2" t="n">
-        <v>12109853.49820782</v>
+        <v>12438403.49117142</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.540867845858207e-07</v>
+        <v>8.016375262454232e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>56</v>
+        <v>55.29166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>10954106.07662454</v>
+        <v>11251299.71938249</v>
       </c>
     </row>
     <row r="3">
@@ -19556,28 +19556,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3204.494614168944</v>
+        <v>3341.72119664764</v>
       </c>
       <c r="AB3" t="n">
-        <v>4384.530903431019</v>
+        <v>4572.29036758793</v>
       </c>
       <c r="AC3" t="n">
-        <v>3966.07742773517</v>
+        <v>4135.917392155001</v>
       </c>
       <c r="AD3" t="n">
-        <v>3204494.614168944</v>
+        <v>3341721.19664764</v>
       </c>
       <c r="AE3" t="n">
-        <v>4384530.90343102</v>
+        <v>4572290.36758793</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.000091354025522e-06</v>
+        <v>1.446904675157941e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.63541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>3966077.42773517</v>
+        <v>4135917.392155001</v>
       </c>
     </row>
     <row r="4">
@@ -19662,28 +19662,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2504.742410650729</v>
+        <v>2616.223097012988</v>
       </c>
       <c r="AB4" t="n">
-        <v>3427.099067688882</v>
+        <v>3579.631860950508</v>
       </c>
       <c r="AC4" t="n">
-        <v>3100.021542632277</v>
+        <v>3237.996820186127</v>
       </c>
       <c r="AD4" t="n">
-        <v>2504742.410650729</v>
+        <v>2616223.097012988</v>
       </c>
       <c r="AE4" t="n">
-        <v>3427099.067688882</v>
+        <v>3579631.860950508</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.162288202061127e-06</v>
+        <v>1.681566615563648e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.35833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>3100021.542632277</v>
+        <v>3237996.820186127</v>
       </c>
     </row>
     <row r="5">
@@ -19768,28 +19768,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2227.900715888088</v>
+        <v>2339.381312741796</v>
       </c>
       <c r="AB5" t="n">
-        <v>3048.312047521019</v>
+        <v>3200.844718313097</v>
       </c>
       <c r="AC5" t="n">
-        <v>2757.385424038327</v>
+        <v>2895.360590810951</v>
       </c>
       <c r="AD5" t="n">
-        <v>2227900.715888088</v>
+        <v>2339381.312741796</v>
       </c>
       <c r="AE5" t="n">
-        <v>3048312.047521019</v>
+        <v>3200844.718313097</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.246842315950949e-06</v>
+        <v>1.8038971828649e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.57083333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>2757385.424038327</v>
+        <v>2895360.590810951</v>
       </c>
     </row>
     <row r="6">
@@ -19874,28 +19874,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2070.806323224256</v>
+        <v>2173.790265724206</v>
       </c>
       <c r="AB6" t="n">
-        <v>2833.368568962716</v>
+        <v>2974.275742422039</v>
       </c>
       <c r="AC6" t="n">
-        <v>2562.955849398677</v>
+        <v>2690.415039987502</v>
       </c>
       <c r="AD6" t="n">
-        <v>2070806.323224256</v>
+        <v>2173790.265724206</v>
       </c>
       <c r="AE6" t="n">
-        <v>2833368.568962716</v>
+        <v>2974275.742422039</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.301251050106138e-06</v>
+        <v>1.882614243563097e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.54375</v>
       </c>
       <c r="AH6" t="n">
-        <v>2562955.849398677</v>
+        <v>2690415.039987502</v>
       </c>
     </row>
     <row r="7">
@@ -19980,28 +19980,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1971.28736154435</v>
+        <v>2074.185963189728</v>
       </c>
       <c r="AB7" t="n">
-        <v>2697.202335125543</v>
+        <v>2837.992741462667</v>
       </c>
       <c r="AC7" t="n">
-        <v>2439.785129808413</v>
+        <v>2567.138697365299</v>
       </c>
       <c r="AD7" t="n">
-        <v>1971287.361544349</v>
+        <v>2074185.963189728</v>
       </c>
       <c r="AE7" t="n">
-        <v>2697202.335125543</v>
+        <v>2837992.741462667</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.336543201990585e-06</v>
+        <v>1.933673958610576e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.92083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2439785.129808413</v>
+        <v>2567138.697365299</v>
       </c>
     </row>
     <row r="8">
@@ -20086,28 +20086,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1904.490876735091</v>
+        <v>2007.218886179877</v>
       </c>
       <c r="AB8" t="n">
-        <v>2605.808437756584</v>
+        <v>2746.365432318863</v>
       </c>
       <c r="AC8" t="n">
-        <v>2357.113737732207</v>
+        <v>2484.256170006443</v>
       </c>
       <c r="AD8" t="n">
-        <v>1904490.876735091</v>
+        <v>2007218.886179877</v>
       </c>
       <c r="AE8" t="n">
-        <v>2605808.437756584</v>
+        <v>2746365.432318863</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.362571164005365e-06</v>
+        <v>1.971330498458092e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.48333333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>2357113.737732207</v>
+        <v>2484256.170006442</v>
       </c>
     </row>
     <row r="9">
@@ -20192,28 +20192,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1850.682401541349</v>
+        <v>1944.999097486949</v>
       </c>
       <c r="AB9" t="n">
-        <v>2532.18530813412</v>
+        <v>2661.233572485849</v>
       </c>
       <c r="AC9" t="n">
-        <v>2290.5170962702</v>
+        <v>2407.249175392577</v>
       </c>
       <c r="AD9" t="n">
-        <v>1850682.401541349</v>
+        <v>1944999.09748695</v>
       </c>
       <c r="AE9" t="n">
-        <v>2532185.308134119</v>
+        <v>2661233.572485849</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.383305303237478e-06</v>
+        <v>2.001328081048486e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.14583333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>2290517.0962702</v>
+        <v>2407249.175392577</v>
       </c>
     </row>
     <row r="10">
@@ -20298,28 +20298,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1798.074572546886</v>
+        <v>1900.887833337693</v>
       </c>
       <c r="AB10" t="n">
-        <v>2460.204955610281</v>
+        <v>2600.878594825208</v>
       </c>
       <c r="AC10" t="n">
-        <v>2225.406447566177</v>
+        <v>2352.654392091124</v>
       </c>
       <c r="AD10" t="n">
-        <v>1798074.572546887</v>
+        <v>1900887.833337693</v>
       </c>
       <c r="AE10" t="n">
-        <v>2460204.955610281</v>
+        <v>2600878.594825209</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.399039720952627e-06</v>
+        <v>2.024092204007154e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.89791666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>2225406.447566177</v>
+        <v>2352654.392091124</v>
       </c>
     </row>
     <row r="11">
@@ -20404,28 +20404,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1739.359726799186</v>
+        <v>1833.761674090807</v>
       </c>
       <c r="AB11" t="n">
-        <v>2379.868713342098</v>
+        <v>2509.033622346476</v>
       </c>
       <c r="AC11" t="n">
-        <v>2152.737383507445</v>
+        <v>2269.574974880535</v>
       </c>
       <c r="AD11" t="n">
-        <v>1739359.726799186</v>
+        <v>1833761.674090807</v>
       </c>
       <c r="AE11" t="n">
-        <v>2379868.713342098</v>
+        <v>2509033.622346477</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.421538467778962e-06</v>
+        <v>2.056642772349922e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.55</v>
       </c>
       <c r="AH11" t="n">
-        <v>2152737.383507445</v>
+        <v>2269574.974880535</v>
       </c>
     </row>
     <row r="12">
@@ -20510,28 +20510,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1738.011076929606</v>
+        <v>1832.413024221227</v>
       </c>
       <c r="AB12" t="n">
-        <v>2378.023431092306</v>
+        <v>2507.188340096684</v>
       </c>
       <c r="AC12" t="n">
-        <v>2151.068212405703</v>
+        <v>2267.905803778793</v>
       </c>
       <c r="AD12" t="n">
-        <v>1738011.076929606</v>
+        <v>1832413.024221227</v>
       </c>
       <c r="AE12" t="n">
-        <v>2378023.431092306</v>
+        <v>2507188.340096685</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.418744505754777e-06</v>
+        <v>2.052600544908663e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.59375</v>
       </c>
       <c r="AH12" t="n">
-        <v>2151068.212405703</v>
+        <v>2267905.803778793</v>
       </c>
     </row>
     <row r="13">
@@ -20616,28 +20616,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1704.126621511026</v>
+        <v>1798.357976602055</v>
       </c>
       <c r="AB13" t="n">
-        <v>2331.661224311935</v>
+        <v>2460.592721541467</v>
       </c>
       <c r="AC13" t="n">
-        <v>2109.130749570685</v>
+        <v>2225.757205661123</v>
       </c>
       <c r="AD13" t="n">
-        <v>1704126.621511026</v>
+        <v>1798357.976602055</v>
       </c>
       <c r="AE13" t="n">
-        <v>2331661.224311935</v>
+        <v>2460592.721541467</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.429038050054407e-06</v>
+        <v>2.067492961797511e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.4375</v>
       </c>
       <c r="AH13" t="n">
-        <v>2109130.749570685</v>
+        <v>2225757.205661123</v>
       </c>
     </row>
     <row r="14">
@@ -20722,28 +20722,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1680.953460611068</v>
+        <v>1775.184815702097</v>
       </c>
       <c r="AB14" t="n">
-        <v>2299.954683240906</v>
+        <v>2428.886180470438</v>
       </c>
       <c r="AC14" t="n">
-        <v>2080.450236279065</v>
+        <v>2197.076692369503</v>
       </c>
       <c r="AD14" t="n">
-        <v>1680953.460611068</v>
+        <v>1775184.815702097</v>
       </c>
       <c r="AE14" t="n">
-        <v>2299954.683240906</v>
+        <v>2428886.180470438</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.436096480431297e-06</v>
+        <v>2.077704904807007e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>21.33333333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>2080450.236279065</v>
+        <v>2197076.692369503</v>
       </c>
     </row>
     <row r="15">
@@ -20828,28 +20828,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1654.800985255931</v>
+        <v>1749.03234034696</v>
       </c>
       <c r="AB15" t="n">
-        <v>2264.171712694224</v>
+        <v>2393.103209923756</v>
       </c>
       <c r="AC15" t="n">
-        <v>2048.082342219643</v>
+        <v>2164.708798310082</v>
       </c>
       <c r="AD15" t="n">
-        <v>1654800.985255931</v>
+        <v>1749032.34034696</v>
       </c>
       <c r="AE15" t="n">
-        <v>2264171.712694224</v>
+        <v>2393103.209923756</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.44344901207389e-06</v>
+        <v>2.088342345441899e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>21.225</v>
       </c>
       <c r="AH15" t="n">
-        <v>2048082.342219643</v>
+        <v>2164708.798310082</v>
       </c>
     </row>
     <row r="16">
@@ -20934,28 +20934,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1628.692998272074</v>
+        <v>1722.924353363103</v>
       </c>
       <c r="AB16" t="n">
-        <v>2228.449613099815</v>
+        <v>2357.381110329347</v>
       </c>
       <c r="AC16" t="n">
-        <v>2015.769509674244</v>
+        <v>2132.395965764682</v>
       </c>
       <c r="AD16" t="n">
-        <v>1628692.998272074</v>
+        <v>1722924.353363103</v>
       </c>
       <c r="AE16" t="n">
-        <v>2228449.613099815</v>
+        <v>2357381.110329347</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.44977218928652e-06</v>
+        <v>2.097490544387905e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>22</v>
+        <v>21.13125</v>
       </c>
       <c r="AH16" t="n">
-        <v>2015769.509674244</v>
+        <v>2132395.965764682</v>
       </c>
     </row>
     <row r="17">
@@ -21040,28 +21040,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1604.468900440926</v>
+        <v>1690.288942032769</v>
       </c>
       <c r="AB17" t="n">
-        <v>2195.305133755467</v>
+        <v>2312.72790077445</v>
       </c>
       <c r="AC17" t="n">
-        <v>1985.788292919951</v>
+        <v>2092.004395858531</v>
       </c>
       <c r="AD17" t="n">
-        <v>1604468.900440926</v>
+        <v>1690288.942032769</v>
       </c>
       <c r="AE17" t="n">
-        <v>2195305.133755466</v>
+        <v>2312727.90077445</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.454477809537779e-06</v>
+        <v>2.104298506394236e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>22</v>
+        <v>21.0625</v>
       </c>
       <c r="AH17" t="n">
-        <v>1985788.292919951</v>
+        <v>2092004.395858531</v>
       </c>
     </row>
     <row r="18">
@@ -21146,28 +21146,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1574.275457277407</v>
+        <v>1668.592063714457</v>
       </c>
       <c r="AB18" t="n">
-        <v>2153.993132778438</v>
+        <v>2283.04127466062</v>
       </c>
       <c r="AC18" t="n">
-        <v>1948.419051334413</v>
+        <v>2065.151019675563</v>
       </c>
       <c r="AD18" t="n">
-        <v>1574275.457277407</v>
+        <v>1668592.063714457</v>
       </c>
       <c r="AE18" t="n">
-        <v>2153993.132778438</v>
+        <v>2283041.27466062</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.459330480421891e-06</v>
+        <v>2.111319217213264e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>21</v>
+        <v>20.99166666666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>1948419.051334413</v>
+        <v>2065151.019675564</v>
       </c>
     </row>
     <row r="19">
@@ -21252,28 +21252,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1557.829720738494</v>
+        <v>1652.146327175543</v>
       </c>
       <c r="AB19" t="n">
-        <v>2131.491350511206</v>
+        <v>2260.539492393388</v>
       </c>
       <c r="AC19" t="n">
-        <v>1928.064807585316</v>
+        <v>2044.796775926466</v>
       </c>
       <c r="AD19" t="n">
-        <v>1557829.720738494</v>
+        <v>1652146.327175543</v>
       </c>
       <c r="AE19" t="n">
-        <v>2131491.350511206</v>
+        <v>2260539.492393388</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.461095088016113e-06</v>
+        <v>2.113872202965638e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>21</v>
+        <v>20.96666666666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>1928064.807585316</v>
+        <v>2044796.775926466</v>
       </c>
     </row>
     <row r="20">
@@ -21358,28 +21358,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1541.292333691168</v>
+        <v>1635.608940128217</v>
       </c>
       <c r="AB20" t="n">
-        <v>2108.86416797503</v>
+        <v>2237.912309857212</v>
       </c>
       <c r="AC20" t="n">
-        <v>1907.597131592942</v>
+        <v>2024.329099934092</v>
       </c>
       <c r="AD20" t="n">
-        <v>1541292.333691168</v>
+        <v>1635608.940128217</v>
       </c>
       <c r="AE20" t="n">
-        <v>2108864.16797503</v>
+        <v>2237912.309857212</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.464330201938854e-06</v>
+        <v>2.118552676844991e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>21</v>
+        <v>20.92083333333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>1907597.131592942</v>
+        <v>2024329.099934092</v>
       </c>
     </row>
     <row r="21">
@@ -21464,28 +21464,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1529.950313627699</v>
+        <v>1624.266920064749</v>
       </c>
       <c r="AB21" t="n">
-        <v>2093.345515749581</v>
+        <v>2222.393657631763</v>
       </c>
       <c r="AC21" t="n">
-        <v>1893.559557755325</v>
+        <v>2010.291526096476</v>
       </c>
       <c r="AD21" t="n">
-        <v>1529950.313627699</v>
+        <v>1624266.920064748</v>
       </c>
       <c r="AE21" t="n">
-        <v>2093345.515749581</v>
+        <v>2222393.657631763</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.466977113330188e-06</v>
+        <v>2.122382155473552e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>21</v>
+        <v>20.88333333333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>1893559.557755325</v>
+        <v>2010291.526096476</v>
       </c>
     </row>
     <row r="22">
@@ -21570,28 +21570,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1534.734193900248</v>
+        <v>1629.050800337297</v>
       </c>
       <c r="AB22" t="n">
-        <v>2099.891031788385</v>
+        <v>2228.939173670566</v>
       </c>
       <c r="AC22" t="n">
-        <v>1899.480378930074</v>
+        <v>2016.212347271225</v>
       </c>
       <c r="AD22" t="n">
-        <v>1534734.193900248</v>
+        <v>1629050.800337297</v>
       </c>
       <c r="AE22" t="n">
-        <v>2099891.031788385</v>
+        <v>2228939.173670566</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.46712416396304e-06</v>
+        <v>2.122594904286249e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>21</v>
+        <v>20.88125</v>
       </c>
       <c r="AH22" t="n">
-        <v>1899480.378930074</v>
+        <v>2016212.347271225</v>
       </c>
     </row>
     <row r="23">
@@ -21676,28 +21676,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1540.345458219917</v>
+        <v>1634.662064656966</v>
       </c>
       <c r="AB23" t="n">
-        <v>2107.568611182066</v>
+        <v>2236.616753064248</v>
       </c>
       <c r="AC23" t="n">
-        <v>1906.425220921973</v>
+        <v>2023.157189263124</v>
       </c>
       <c r="AD23" t="n">
-        <v>1540345.458219917</v>
+        <v>1634662.064656966</v>
       </c>
       <c r="AE23" t="n">
-        <v>2107568.611182066</v>
+        <v>2236616.753064248</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.466977113330188e-06</v>
+        <v>2.122382155473552e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>21</v>
+        <v>20.88333333333333</v>
       </c>
       <c r="AH23" t="n">
-        <v>1906425.220921973</v>
+        <v>2023157.189263124</v>
       </c>
     </row>
   </sheetData>
@@ -21973,28 +21973,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3384.764908568411</v>
+        <v>3538.414602290048</v>
       </c>
       <c r="AB2" t="n">
-        <v>4631.184673192481</v>
+        <v>4841.414962688516</v>
       </c>
       <c r="AC2" t="n">
-        <v>4189.190907891328</v>
+        <v>4379.357113617918</v>
       </c>
       <c r="AD2" t="n">
-        <v>3384764.908568411</v>
+        <v>3538414.602290048</v>
       </c>
       <c r="AE2" t="n">
-        <v>4631184.673192481</v>
+        <v>4841414.962688517</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.228595731488445e-07</v>
+        <v>1.385844021912354e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.91458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4189190.907891328</v>
+        <v>4379357.113617918</v>
       </c>
     </row>
     <row r="3">
@@ -22079,28 +22079,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1911.73756030709</v>
+        <v>2024.908207862732</v>
       </c>
       <c r="AB3" t="n">
-        <v>2615.723669920909</v>
+        <v>2770.568742643138</v>
       </c>
       <c r="AC3" t="n">
-        <v>2366.082674054885</v>
+        <v>2506.149550362929</v>
       </c>
       <c r="AD3" t="n">
-        <v>1911737.56030709</v>
+        <v>2024908.207862732</v>
       </c>
       <c r="AE3" t="n">
-        <v>2615723.669920909</v>
+        <v>2770568.742643138</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.280485554951741e-06</v>
+        <v>1.922885456364857e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.88541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2366082.674054885</v>
+        <v>2506149.550362929</v>
       </c>
     </row>
     <row r="4">
@@ -22185,28 +22185,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1619.328155084184</v>
+        <v>1716.477865882571</v>
       </c>
       <c r="AB4" t="n">
-        <v>2215.636221502421</v>
+        <v>2348.560741759528</v>
       </c>
       <c r="AC4" t="n">
-        <v>2004.179010187197</v>
+        <v>2124.417400791701</v>
       </c>
       <c r="AD4" t="n">
-        <v>1619328.155084184</v>
+        <v>1716477.865882571</v>
       </c>
       <c r="AE4" t="n">
-        <v>2215636.221502421</v>
+        <v>2348560.741759528</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.404572861805059e-06</v>
+        <v>2.109225455863502e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.59583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2004179.010187197</v>
+        <v>2124417.400791701</v>
       </c>
     </row>
     <row r="5">
@@ -22291,28 +22291,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1482.710296744918</v>
+        <v>1579.774666688734</v>
       </c>
       <c r="AB5" t="n">
-        <v>2028.709640568102</v>
+        <v>2161.517393703011</v>
       </c>
       <c r="AC5" t="n">
-        <v>1835.092439784145</v>
+        <v>1955.225207356711</v>
       </c>
       <c r="AD5" t="n">
-        <v>1482710.296744918</v>
+        <v>1579774.666688734</v>
       </c>
       <c r="AE5" t="n">
-        <v>2028709.640568102</v>
+        <v>2161517.393703011</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.468366464430932e-06</v>
+        <v>2.205023327400625e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.57083333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1835092.439784145</v>
+        <v>1955225.207356711</v>
       </c>
     </row>
     <row r="6">
@@ -22397,28 +22397,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1389.845337608197</v>
+        <v>1486.824366697441</v>
       </c>
       <c r="AB6" t="n">
-        <v>1901.647706564389</v>
+        <v>2034.338692577101</v>
       </c>
       <c r="AC6" t="n">
-        <v>1720.157118429202</v>
+        <v>1840.184262969829</v>
       </c>
       <c r="AD6" t="n">
-        <v>1389845.337608197</v>
+        <v>1486824.366697441</v>
       </c>
       <c r="AE6" t="n">
-        <v>1901647.706564389</v>
+        <v>2034338.692577101</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.508615296012841e-06</v>
+        <v>2.265464378520057e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.96875</v>
       </c>
       <c r="AH6" t="n">
-        <v>1720157.118429202</v>
+        <v>1840184.262969829</v>
       </c>
     </row>
     <row r="7">
@@ -22503,28 +22503,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1328.039322704299</v>
+        <v>1417.093224269487</v>
       </c>
       <c r="AB7" t="n">
-        <v>1817.081990283939</v>
+        <v>1938.929467186287</v>
       </c>
       <c r="AC7" t="n">
-        <v>1643.66223542183</v>
+        <v>1753.880760142625</v>
       </c>
       <c r="AD7" t="n">
-        <v>1328039.322704299</v>
+        <v>1417093.224269487</v>
       </c>
       <c r="AE7" t="n">
-        <v>1817081.990283939</v>
+        <v>1938929.467186287</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.535659965455231e-06</v>
+        <v>2.306076942513351e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.58333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1643662.23542183</v>
+        <v>1753880.760142625</v>
       </c>
     </row>
     <row r="8">
@@ -22609,28 +22609,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1299.650398823998</v>
+        <v>1388.704300389187</v>
       </c>
       <c r="AB8" t="n">
-        <v>1778.239012199982</v>
+        <v>1900.08648910233</v>
       </c>
       <c r="AC8" t="n">
-        <v>1608.526376649743</v>
+        <v>1718.744901370539</v>
       </c>
       <c r="AD8" t="n">
-        <v>1299650.398823998</v>
+        <v>1388704.300389186</v>
       </c>
       <c r="AE8" t="n">
-        <v>1778239.012199982</v>
+        <v>1900086.48910233</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.539955295307846e-06</v>
+        <v>2.312527173265227e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.52291666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1608526.376649743</v>
+        <v>1718744.901370539</v>
       </c>
     </row>
     <row r="9">
@@ -22715,28 +22715,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1234.080832169906</v>
+        <v>1322.964141534502</v>
       </c>
       <c r="AB9" t="n">
-        <v>1688.52383837873</v>
+        <v>1810.137903506231</v>
       </c>
       <c r="AC9" t="n">
-        <v>1527.373493101955</v>
+        <v>1637.3808825401</v>
       </c>
       <c r="AD9" t="n">
-        <v>1234080.832169906</v>
+        <v>1322964.141534502</v>
       </c>
       <c r="AE9" t="n">
-        <v>1688523.83837873</v>
+        <v>1810137.903506231</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.565727274423535e-06</v>
+        <v>2.351228557776484e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.16666666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1527373.493101955</v>
+        <v>1637380.8825401</v>
       </c>
     </row>
     <row r="10">
@@ -22821,28 +22821,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1221.814711056343</v>
+        <v>1302.772892896883</v>
       </c>
       <c r="AB10" t="n">
-        <v>1671.740790328081</v>
+        <v>1782.511346345218</v>
       </c>
       <c r="AC10" t="n">
-        <v>1512.192195602104</v>
+        <v>1612.390965220418</v>
       </c>
       <c r="AD10" t="n">
-        <v>1221814.711056343</v>
+        <v>1302772.892896883</v>
       </c>
       <c r="AE10" t="n">
-        <v>1671740.790328081</v>
+        <v>1782511.346345218</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.571931639766201e-06</v>
+        <v>2.360545557751417e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.08541666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>1512192.195602104</v>
+        <v>1612390.965220418</v>
       </c>
     </row>
     <row r="11">
@@ -22927,28 +22927,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1228.20637382815</v>
+        <v>1309.16455566869</v>
       </c>
       <c r="AB11" t="n">
-        <v>1680.486145312728</v>
+        <v>1791.256701329865</v>
       </c>
       <c r="AC11" t="n">
-        <v>1520.102906181199</v>
+        <v>1620.301675799512</v>
       </c>
       <c r="AD11" t="n">
-        <v>1228206.37382815</v>
+        <v>1309164.55566869</v>
       </c>
       <c r="AE11" t="n">
-        <v>1680486.145312728</v>
+        <v>1791256.701329865</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.571772553475364e-06</v>
+        <v>2.360306660316162e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.0875</v>
       </c>
       <c r="AH11" t="n">
-        <v>1520102.906181199</v>
+        <v>1620301.675799512</v>
       </c>
     </row>
   </sheetData>
@@ -23224,28 +23224,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2324.750537047596</v>
+        <v>2450.311016720291</v>
       </c>
       <c r="AB2" t="n">
-        <v>3180.826245544022</v>
+        <v>3352.62363316963</v>
       </c>
       <c r="AC2" t="n">
-        <v>2877.252652986854</v>
+        <v>3032.653939056615</v>
       </c>
       <c r="AD2" t="n">
-        <v>2324750.537047596</v>
+        <v>2450311.016720291</v>
       </c>
       <c r="AE2" t="n">
-        <v>3180826.245544022</v>
+        <v>3352623.63316963</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.109463129880687e-06</v>
+        <v>1.701635468458648e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.11666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2877252.652986854</v>
+        <v>3032653.939056615</v>
       </c>
     </row>
     <row r="3">
@@ -23330,28 +23330,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1494.252200761169</v>
+        <v>1588.465253320113</v>
       </c>
       <c r="AB3" t="n">
-        <v>2044.501782836005</v>
+        <v>2173.408237733689</v>
       </c>
       <c r="AC3" t="n">
-        <v>1849.37740215841</v>
+        <v>1965.981205922005</v>
       </c>
       <c r="AD3" t="n">
-        <v>1494252.200761168</v>
+        <v>1588465.253320113</v>
       </c>
       <c r="AE3" t="n">
-        <v>2044501.782836005</v>
+        <v>2173408.237733689</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.419184801239462e-06</v>
+        <v>2.176670074963385e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.325</v>
       </c>
       <c r="AH3" t="n">
-        <v>1849377.40215841</v>
+        <v>1965981.205922005</v>
       </c>
     </row>
     <row r="4">
@@ -23436,28 +23436,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1288.104043141607</v>
+        <v>1382.317006192001</v>
       </c>
       <c r="AB4" t="n">
-        <v>1762.440778966072</v>
+        <v>1891.347111394208</v>
       </c>
       <c r="AC4" t="n">
-        <v>1594.235904622719</v>
+        <v>1710.839597605087</v>
       </c>
       <c r="AD4" t="n">
-        <v>1288104.043141607</v>
+        <v>1382317.006192001</v>
       </c>
       <c r="AE4" t="n">
-        <v>1762440.778966072</v>
+        <v>1891347.111394208</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.526236807498301e-06</v>
+        <v>2.340860741524145e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.62083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1594235.904622719</v>
+        <v>1710839.597605087</v>
       </c>
     </row>
     <row r="5">
@@ -23542,28 +23542,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1177.212620655411</v>
+        <v>1271.340242851233</v>
       </c>
       <c r="AB5" t="n">
-        <v>1610.714242536173</v>
+        <v>1739.50380784211</v>
       </c>
       <c r="AC5" t="n">
-        <v>1456.989935880157</v>
+        <v>1573.488005830586</v>
       </c>
       <c r="AD5" t="n">
-        <v>1177212.620655411</v>
+        <v>1271340.242851233</v>
       </c>
       <c r="AE5" t="n">
-        <v>1610714.242536173</v>
+        <v>1739503.80784211</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.581419962427392e-06</v>
+        <v>2.425497725989676e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.83125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1456989.935880157</v>
+        <v>1573488.005830586</v>
       </c>
     </row>
     <row r="6">
@@ -23648,28 +23648,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1108.205969523764</v>
+        <v>1194.475489236057</v>
       </c>
       <c r="AB6" t="n">
-        <v>1516.296298099265</v>
+        <v>1634.334060912224</v>
       </c>
       <c r="AC6" t="n">
-        <v>1371.583107543891</v>
+        <v>1478.355511941021</v>
       </c>
       <c r="AD6" t="n">
-        <v>1108205.969523764</v>
+        <v>1194475.489236057</v>
       </c>
       <c r="AE6" t="n">
-        <v>1516296.298099265</v>
+        <v>1634334.060912224</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.613568707341037e-06</v>
+        <v>2.474805758981607e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.39583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1371583.107543891</v>
+        <v>1478355.511941021</v>
       </c>
     </row>
     <row r="7">
@@ -23754,28 +23754,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1094.064291556232</v>
+        <v>1180.333811268525</v>
       </c>
       <c r="AB7" t="n">
-        <v>1496.947030417288</v>
+        <v>1614.984793230246</v>
       </c>
       <c r="AC7" t="n">
-        <v>1354.080506812614</v>
+        <v>1460.852911209744</v>
       </c>
       <c r="AD7" t="n">
-        <v>1094064.291556232</v>
+        <v>1180333.811268525</v>
       </c>
       <c r="AE7" t="n">
-        <v>1496947.030417288</v>
+        <v>1614984.793230246</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.619865884179793e-06</v>
+        <v>2.484464033485181e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.3125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1354080.506812614</v>
+        <v>1460852.911209744</v>
       </c>
     </row>
     <row r="8">
@@ -23860,28 +23860,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1100.89269514771</v>
+        <v>1187.162214860003</v>
       </c>
       <c r="AB8" t="n">
-        <v>1506.289953459053</v>
+        <v>1624.327716272012</v>
       </c>
       <c r="AC8" t="n">
-        <v>1362.531754392148</v>
+        <v>1469.304158789278</v>
       </c>
       <c r="AD8" t="n">
-        <v>1100892.69514771</v>
+        <v>1187162.214860003</v>
       </c>
       <c r="AE8" t="n">
-        <v>1506289.953459053</v>
+        <v>1624327.716272012</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.62003159935976e-06</v>
+        <v>2.484718198603696e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.31041666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1362531.754392148</v>
+        <v>1469304.158789278</v>
       </c>
     </row>
   </sheetData>
@@ -44738,28 +44738,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1737.658295841865</v>
+        <v>1844.928685757124</v>
       </c>
       <c r="AB2" t="n">
-        <v>2377.540740444455</v>
+        <v>2524.312820362117</v>
       </c>
       <c r="AC2" t="n">
-        <v>2150.631589075823</v>
+        <v>2283.395947682051</v>
       </c>
       <c r="AD2" t="n">
-        <v>1737658.295841865</v>
+        <v>1844928.685757124</v>
       </c>
       <c r="AE2" t="n">
-        <v>2377540.740444455</v>
+        <v>2524312.820362117</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.263400215838839e-06</v>
+        <v>1.974037916217091e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.26875</v>
       </c>
       <c r="AH2" t="n">
-        <v>2150631.589075823</v>
+        <v>2283395.947682051</v>
       </c>
     </row>
     <row r="3">
@@ -44844,28 +44844,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1205.283928588259</v>
+        <v>1297.132457468764</v>
       </c>
       <c r="AB3" t="n">
-        <v>1649.122644468597</v>
+        <v>1774.793853754016</v>
       </c>
       <c r="AC3" t="n">
-        <v>1491.732693838682</v>
+        <v>1605.410019290551</v>
       </c>
       <c r="AD3" t="n">
-        <v>1205283.928588259</v>
+        <v>1297132.457468764</v>
       </c>
       <c r="AE3" t="n">
-        <v>1649122.644468597</v>
+        <v>1774793.853754017</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.534251279750014e-06</v>
+        <v>2.397237360942058e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.27708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1491732.693838682</v>
+        <v>1605410.019290551</v>
       </c>
     </row>
     <row r="4">
@@ -44950,28 +44950,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1042.607931091726</v>
+        <v>1134.45637046368</v>
       </c>
       <c r="AB4" t="n">
-        <v>1426.542167935342</v>
+        <v>1552.213254751213</v>
       </c>
       <c r="AC4" t="n">
-        <v>1290.394985592099</v>
+        <v>1404.072200262743</v>
       </c>
       <c r="AD4" t="n">
-        <v>1042607.931091726</v>
+        <v>1134456.37046368</v>
       </c>
       <c r="AE4" t="n">
-        <v>1426542.167935342</v>
+        <v>1552213.254751213</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.62647778125901e-06</v>
+        <v>2.541339450348407e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.95625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1290394.985592099</v>
+        <v>1404072.200262743</v>
       </c>
     </row>
     <row r="5">
@@ -45056,28 +45056,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>998.926965340395</v>
+        <v>1083.277826331401</v>
       </c>
       <c r="AB5" t="n">
-        <v>1366.775943526167</v>
+        <v>1482.188512831412</v>
       </c>
       <c r="AC5" t="n">
-        <v>1236.332765758114</v>
+        <v>1340.730521431424</v>
       </c>
       <c r="AD5" t="n">
-        <v>998926.965340395</v>
+        <v>1083277.826331401</v>
       </c>
       <c r="AE5" t="n">
-        <v>1366775.943526167</v>
+        <v>1482188.512831412</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.651505790962194e-06</v>
+        <v>2.580445221822993e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1236332.765758114</v>
+        <v>1340730.521431424</v>
       </c>
     </row>
     <row r="6">
@@ -45162,28 +45162,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1006.21116068706</v>
+        <v>1090.562021678066</v>
       </c>
       <c r="AB6" t="n">
-        <v>1376.742500955493</v>
+        <v>1492.155070260738</v>
       </c>
       <c r="AC6" t="n">
-        <v>1245.348128934536</v>
+        <v>1349.745884607846</v>
       </c>
       <c r="AD6" t="n">
-        <v>1006211.16068706</v>
+        <v>1090562.021678066</v>
       </c>
       <c r="AE6" t="n">
-        <v>1376742.500955493</v>
+        <v>1492155.070260738</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.6513343662382e-06</v>
+        <v>2.580177374073167e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.62708333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1245348.128934536</v>
+        <v>1349745.884607846</v>
       </c>
     </row>
   </sheetData>
@@ -45459,28 +45459,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>911.5591507632726</v>
+        <v>1006.18129912327</v>
       </c>
       <c r="AB2" t="n">
-        <v>1247.235445225799</v>
+        <v>1376.701643046516</v>
       </c>
       <c r="AC2" t="n">
-        <v>1128.201044839389</v>
+        <v>1245.311170447048</v>
       </c>
       <c r="AD2" t="n">
-        <v>911559.1507632725</v>
+        <v>1006181.29912327</v>
       </c>
       <c r="AE2" t="n">
-        <v>1247235.445225799</v>
+        <v>1376701.643046516</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.599065974374175e-06</v>
+        <v>2.605959653682894e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.97083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1128201.044839389</v>
+        <v>1245311.170447048</v>
       </c>
     </row>
     <row r="3">
@@ -45565,28 +45565,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>828.726869400949</v>
+        <v>916.1426024563539</v>
       </c>
       <c r="AB3" t="n">
-        <v>1133.900663563522</v>
+        <v>1253.50672603989</v>
       </c>
       <c r="AC3" t="n">
-        <v>1025.682775672595</v>
+        <v>1133.873803414382</v>
       </c>
       <c r="AD3" t="n">
-        <v>828726.869400949</v>
+        <v>916142.6024563538</v>
       </c>
       <c r="AE3" t="n">
-        <v>1133900.663563522</v>
+        <v>1253506.72603989</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.673950320429899e-06</v>
+        <v>2.727996885192379e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.89791666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1025682.775672595</v>
+        <v>1133873.803414382</v>
       </c>
     </row>
   </sheetData>
@@ -45862,28 +45862,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4821.28855823031</v>
+        <v>5003.656180584034</v>
       </c>
       <c r="AB2" t="n">
-        <v>6596.699705610647</v>
+        <v>6846.223132006701</v>
       </c>
       <c r="AC2" t="n">
-        <v>5967.119944233103</v>
+        <v>6192.829205022237</v>
       </c>
       <c r="AD2" t="n">
-        <v>4821288.55823031</v>
+        <v>5003656.180584034</v>
       </c>
       <c r="AE2" t="n">
-        <v>6596699.705610648</v>
+        <v>6846223.132006701</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.685793257268632e-07</v>
+        <v>1.135484342770782e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.71041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>5967119.944233103</v>
+        <v>6192829.205022237</v>
       </c>
     </row>
     <row r="3">
@@ -45968,28 +45968,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2359.3274511974</v>
+        <v>2475.488190146497</v>
       </c>
       <c r="AB3" t="n">
-        <v>3228.13590490958</v>
+        <v>3387.072152589867</v>
       </c>
       <c r="AC3" t="n">
-        <v>2920.047144862086</v>
+        <v>3063.814740132185</v>
       </c>
       <c r="AD3" t="n">
-        <v>2359327.4511974</v>
+        <v>2475488.190146497</v>
       </c>
       <c r="AE3" t="n">
-        <v>3228135.90490958</v>
+        <v>3387072.152589866</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.163870674634233e-06</v>
+        <v>1.719480193937577e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.54375</v>
       </c>
       <c r="AH3" t="n">
-        <v>2920047.144862087</v>
+        <v>3063814.740132185</v>
       </c>
     </row>
     <row r="4">
@@ -46074,28 +46074,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1938.246708589451</v>
+        <v>2046.024911044755</v>
       </c>
       <c r="AB4" t="n">
-        <v>2651.994656101918</v>
+        <v>2799.461547539977</v>
       </c>
       <c r="AC4" t="n">
-        <v>2398.892008221428</v>
+        <v>2532.284866511721</v>
       </c>
       <c r="AD4" t="n">
-        <v>1938246.708589451</v>
+        <v>2046024.911044755</v>
       </c>
       <c r="AE4" t="n">
-        <v>2651994.656101918</v>
+        <v>2799461.547539977</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.304969221519425e-06</v>
+        <v>1.927936478686487e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.56666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2398892.008221428</v>
+        <v>2532284.866511721</v>
       </c>
     </row>
     <row r="5">
@@ -46180,28 +46180,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1763.444444810568</v>
+        <v>1862.840200280631</v>
       </c>
       <c r="AB5" t="n">
-        <v>2412.82248706804</v>
+        <v>2548.82014473343</v>
       </c>
       <c r="AC5" t="n">
-        <v>2182.546095319895</v>
+        <v>2305.564327411612</v>
       </c>
       <c r="AD5" t="n">
-        <v>1763444.444810568</v>
+        <v>1862840.200280631</v>
       </c>
       <c r="AE5" t="n">
-        <v>2412822.48706804</v>
+        <v>2548820.14473343</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.376364778503862e-06</v>
+        <v>2.03341490412105e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.28958333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>2182546.095319896</v>
+        <v>2305564.327411612</v>
       </c>
     </row>
     <row r="6">
@@ -46286,28 +46286,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1656.925770490951</v>
+        <v>1756.406777307034</v>
       </c>
       <c r="AB6" t="n">
-        <v>2267.078937591687</v>
+        <v>2403.193239909727</v>
       </c>
       <c r="AC6" t="n">
-        <v>2050.712105653209</v>
+        <v>2173.835849995637</v>
       </c>
       <c r="AD6" t="n">
-        <v>1656925.770490951</v>
+        <v>1756406.777307034</v>
       </c>
       <c r="AE6" t="n">
-        <v>2267078.937591687</v>
+        <v>2403193.239909727</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.420217652944734e-06</v>
+        <v>2.098202299053918e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.57083333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>2050712.105653209</v>
+        <v>2173835.849995637</v>
       </c>
     </row>
     <row r="7">
@@ -46392,28 +46392,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1582.551201621549</v>
+        <v>1673.735102306962</v>
       </c>
       <c r="AB7" t="n">
-        <v>2165.316371290166</v>
+        <v>2290.078206957734</v>
       </c>
       <c r="AC7" t="n">
-        <v>1958.661615854846</v>
+        <v>2071.516357030638</v>
       </c>
       <c r="AD7" t="n">
-        <v>1582551.201621549</v>
+        <v>1673735.102306962</v>
       </c>
       <c r="AE7" t="n">
-        <v>2165316.371290166</v>
+        <v>2290078.206957734</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.452684167004468e-06</v>
+        <v>2.146167703723515e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.06666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1958661.615854846</v>
+        <v>2071516.357030638</v>
       </c>
     </row>
     <row r="8">
@@ -46498,28 +46498,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1523.067028420489</v>
+        <v>1614.336180451922</v>
       </c>
       <c r="AB8" t="n">
-        <v>2083.927501259965</v>
+        <v>2208.805981580183</v>
       </c>
       <c r="AC8" t="n">
-        <v>1885.040385350331</v>
+        <v>1998.000638776835</v>
       </c>
       <c r="AD8" t="n">
-        <v>1523067.028420489</v>
+        <v>1614336.180451922</v>
       </c>
       <c r="AE8" t="n">
-        <v>2083927.501259965</v>
+        <v>2208805.981580182</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.473302711478421e-06</v>
+        <v>2.1766291455516e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.75833333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1885040.385350331</v>
+        <v>1998000.638776835</v>
       </c>
     </row>
     <row r="9">
@@ -46604,28 +46604,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1456.187285615823</v>
+        <v>1547.285845446664</v>
       </c>
       <c r="AB9" t="n">
-        <v>1992.419686628606</v>
+        <v>2117.064755173977</v>
       </c>
       <c r="AC9" t="n">
-        <v>1802.265948115364</v>
+        <v>1915.015066259217</v>
       </c>
       <c r="AD9" t="n">
-        <v>1456187.285615823</v>
+        <v>1547285.845446664</v>
       </c>
       <c r="AE9" t="n">
-        <v>1992419.686628606</v>
+        <v>2117064.755173977</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.501768612431268e-06</v>
+        <v>2.218684121209777e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.34583333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1802265.948115364</v>
+        <v>1915015.066259217</v>
       </c>
     </row>
     <row r="10">
@@ -46710,28 +46710,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1442.116011742449</v>
+        <v>1533.21457157329</v>
       </c>
       <c r="AB10" t="n">
-        <v>1973.166748934265</v>
+        <v>2097.811817479635</v>
       </c>
       <c r="AC10" t="n">
-        <v>1784.850483772904</v>
+        <v>1897.599601916756</v>
       </c>
       <c r="AD10" t="n">
-        <v>1442116.011742449</v>
+        <v>1533214.57157329</v>
       </c>
       <c r="AE10" t="n">
-        <v>1973166.748934265</v>
+        <v>2097811.817479636</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.501307003226627e-06</v>
+        <v>2.218002148631536e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.35208333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1784850.483772904</v>
+        <v>1897599.601916756</v>
       </c>
     </row>
     <row r="11">
@@ -46816,28 +46816,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1404.860691376032</v>
+        <v>1495.959251206873</v>
       </c>
       <c r="AB11" t="n">
-        <v>1922.192376020197</v>
+        <v>2046.837444565567</v>
       </c>
       <c r="AC11" t="n">
-        <v>1738.741033466772</v>
+        <v>1851.490151610625</v>
       </c>
       <c r="AD11" t="n">
-        <v>1404860.691376032</v>
+        <v>1495959.251206873</v>
       </c>
       <c r="AE11" t="n">
-        <v>1922192.376020197</v>
+        <v>2046837.444565567</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.511924014933365e-06</v>
+        <v>2.233687517931072e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.20208333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1738741.033466772</v>
+        <v>1851490.151610625</v>
       </c>
     </row>
     <row r="12">
@@ -46922,28 +46922,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1368.132195280094</v>
+        <v>1451.104241180857</v>
       </c>
       <c r="AB12" t="n">
-        <v>1871.938827314846</v>
+        <v>1985.464840984592</v>
       </c>
       <c r="AC12" t="n">
-        <v>1693.283612918561</v>
+        <v>1795.974863178428</v>
       </c>
       <c r="AD12" t="n">
-        <v>1368132.195280094</v>
+        <v>1451104.241180857</v>
       </c>
       <c r="AE12" t="n">
-        <v>1871938.827314846</v>
+        <v>1985464.840984592</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.521463938495941e-06</v>
+        <v>2.24778161788138e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.06875</v>
       </c>
       <c r="AH12" t="n">
-        <v>1693283.612918561</v>
+        <v>1795974.863178428</v>
       </c>
     </row>
     <row r="13">
@@ -47028,28 +47028,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1344.600390450369</v>
+        <v>1427.572436351132</v>
       </c>
       <c r="AB13" t="n">
-        <v>1839.741573796856</v>
+        <v>1953.267587466602</v>
       </c>
       <c r="AC13" t="n">
-        <v>1664.159220087199</v>
+        <v>1766.850470347066</v>
       </c>
       <c r="AD13" t="n">
-        <v>1344600.390450369</v>
+        <v>1427572.436351132</v>
       </c>
       <c r="AE13" t="n">
-        <v>1839741.573796856</v>
+        <v>1953267.587466602</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.526080030542348e-06</v>
+        <v>2.254601343663787e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.00625</v>
       </c>
       <c r="AH13" t="n">
-        <v>1664159.220087199</v>
+        <v>1766850.470347065</v>
       </c>
     </row>
     <row r="14">
@@ -47134,28 +47134,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1332.689718076555</v>
+        <v>1423.873529253416</v>
       </c>
       <c r="AB14" t="n">
-        <v>1823.444866393223</v>
+        <v>1948.206579591243</v>
       </c>
       <c r="AC14" t="n">
-        <v>1649.417847565597</v>
+        <v>1762.272477960161</v>
       </c>
       <c r="AD14" t="n">
-        <v>1332689.718076555</v>
+        <v>1423873.529253416</v>
       </c>
       <c r="AE14" t="n">
-        <v>1823444.866393223</v>
+        <v>1948206.579591243</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.529003555505073e-06</v>
+        <v>2.258920503325979e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>21</v>
+        <v>20.96666666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>1649417.847565596</v>
+        <v>1762272.477960161</v>
       </c>
     </row>
     <row r="15">
@@ -47240,28 +47240,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1339.200134041534</v>
+        <v>1430.383945218396</v>
       </c>
       <c r="AB15" t="n">
-        <v>1832.35270473579</v>
+        <v>1957.114417933809</v>
       </c>
       <c r="AC15" t="n">
-        <v>1657.475534318978</v>
+        <v>1770.330164713543</v>
       </c>
       <c r="AD15" t="n">
-        <v>1339200.134041534</v>
+        <v>1430383.945218396</v>
       </c>
       <c r="AE15" t="n">
-        <v>1832352.70473579</v>
+        <v>1957114.417933809</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.529003555505073e-06</v>
+        <v>2.258920503325979e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>21</v>
+        <v>20.96666666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>1657475.534318978</v>
+        <v>1770330.164713543</v>
       </c>
     </row>
   </sheetData>
@@ -47537,28 +47537,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7799.566611319679</v>
+        <v>8021.234913832032</v>
       </c>
       <c r="AB2" t="n">
-        <v>10671.71113020225</v>
+        <v>10975.00748101499</v>
       </c>
       <c r="AC2" t="n">
-        <v>9653.217997775986</v>
+        <v>9927.568170546245</v>
       </c>
       <c r="AD2" t="n">
-        <v>7799566.61131968</v>
+        <v>8021234.913832032</v>
       </c>
       <c r="AE2" t="n">
-        <v>10671711.13020225</v>
+        <v>10975007.48101499</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.936881867883815e-07</v>
+        <v>8.621355897989398e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>53</v>
+        <v>52.03125</v>
       </c>
       <c r="AH2" t="n">
-        <v>9653217.997775987</v>
+        <v>9927568.170546245</v>
       </c>
     </row>
     <row r="3">
@@ -47643,28 +47643,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3020.649667060451</v>
+        <v>3156.942710802614</v>
       </c>
       <c r="AB3" t="n">
-        <v>4132.986136130519</v>
+        <v>4319.468291403284</v>
       </c>
       <c r="AC3" t="n">
-        <v>3738.53973998054</v>
+        <v>3907.224300083414</v>
       </c>
       <c r="AD3" t="n">
-        <v>3020649.667060451</v>
+        <v>3156942.710802614</v>
       </c>
       <c r="AE3" t="n">
-        <v>4132986.136130519</v>
+        <v>4319468.291403283</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.030206174277142e-06</v>
+        <v>1.496033485994764e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.98541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>3738539.73998054</v>
+        <v>3907224.300083414</v>
       </c>
     </row>
     <row r="4">
@@ -47749,28 +47749,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2381.78382390153</v>
+        <v>2501.01890196228</v>
       </c>
       <c r="AB4" t="n">
-        <v>3258.861704748616</v>
+        <v>3422.004398831735</v>
       </c>
       <c r="AC4" t="n">
-        <v>2947.840517488415</v>
+        <v>3095.413101820443</v>
       </c>
       <c r="AD4" t="n">
-        <v>2381783.82390153</v>
+        <v>2501018.90196228</v>
       </c>
       <c r="AE4" t="n">
-        <v>3258861.704748616</v>
+        <v>3422004.398831735</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.188859111306005e-06</v>
+        <v>1.726424365386588e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.98333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2947840.517488415</v>
+        <v>3095413.101820443</v>
       </c>
     </row>
     <row r="5">
@@ -47855,28 +47855,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2134.575740340614</v>
+        <v>2236.838283083076</v>
       </c>
       <c r="AB5" t="n">
-        <v>2920.620698769448</v>
+        <v>3060.540821254839</v>
       </c>
       <c r="AC5" t="n">
-        <v>2641.880758395787</v>
+        <v>2768.447100770183</v>
       </c>
       <c r="AD5" t="n">
-        <v>2134575.740340614</v>
+        <v>2236838.283083077</v>
       </c>
       <c r="AE5" t="n">
-        <v>2920620.698769448</v>
+        <v>3060540.821254839</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.271002781505996e-06</v>
+        <v>1.845710858081047e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.30416666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>2641880.758395787</v>
+        <v>2768447.100770183</v>
       </c>
     </row>
     <row r="6">
@@ -47961,28 +47961,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1990.407483007171</v>
+        <v>2092.584684895058</v>
       </c>
       <c r="AB6" t="n">
-        <v>2723.363328831202</v>
+        <v>2863.166684194216</v>
       </c>
       <c r="AC6" t="n">
-        <v>2463.449354991989</v>
+        <v>2589.910074334399</v>
       </c>
       <c r="AD6" t="n">
-        <v>1990407.483007171</v>
+        <v>2092584.684895058</v>
       </c>
       <c r="AE6" t="n">
-        <v>2723363.328831202</v>
+        <v>2863166.684194216</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.322750328256531e-06</v>
+        <v>1.920857042106978e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.35208333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>2463449.354991989</v>
+        <v>2589910.074334399</v>
       </c>
     </row>
     <row r="7">
@@ -48067,28 +48067,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1894.085884697038</v>
+        <v>1996.348337930946</v>
       </c>
       <c r="AB7" t="n">
-        <v>2591.571868614269</v>
+        <v>2731.491868629932</v>
       </c>
       <c r="AC7" t="n">
-        <v>2344.235886767684</v>
+        <v>2470.802118360807</v>
       </c>
       <c r="AD7" t="n">
-        <v>1894085.884697038</v>
+        <v>1996348.337930946</v>
       </c>
       <c r="AE7" t="n">
-        <v>2591571.868614268</v>
+        <v>2731491.868629932</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.357594664893712e-06</v>
+        <v>1.971456908141632e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.75416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2344235.886767684</v>
+        <v>2470802.118360807</v>
       </c>
     </row>
     <row r="8">
@@ -48173,28 +48173,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1829.20999577477</v>
+        <v>1922.943555676523</v>
       </c>
       <c r="AB8" t="n">
-        <v>2502.805815268602</v>
+        <v>2631.056207158992</v>
       </c>
       <c r="AC8" t="n">
-        <v>2263.941540969389</v>
+        <v>2379.951895458316</v>
       </c>
       <c r="AD8" t="n">
-        <v>1829209.99577477</v>
+        <v>1922943.555676523</v>
       </c>
       <c r="AE8" t="n">
-        <v>2502805.815268602</v>
+        <v>2631056.207158992</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.383542575155442e-06</v>
+        <v>2.009137659444033e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.32708333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>2263941.540969389</v>
+        <v>2379951.895458316</v>
       </c>
     </row>
     <row r="9">
@@ -48279,28 +48279,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1777.131143210673</v>
+        <v>1870.864703112426</v>
       </c>
       <c r="AB9" t="n">
-        <v>2431.549231633582</v>
+        <v>2559.799623523972</v>
       </c>
       <c r="AC9" t="n">
-        <v>2199.485585667253</v>
+        <v>2315.49594015618</v>
       </c>
       <c r="AD9" t="n">
-        <v>1777131.143210673</v>
+        <v>1870864.703112426</v>
       </c>
       <c r="AE9" t="n">
-        <v>2431549.231633582</v>
+        <v>2559799.623523972</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.403559534500205e-06</v>
+        <v>2.0382056675916e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.00833333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>2199485.585667253</v>
+        <v>2315495.940156179</v>
       </c>
     </row>
     <row r="10">
@@ -48385,28 +48385,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1724.59368582361</v>
+        <v>1818.412497071383</v>
       </c>
       <c r="AB10" t="n">
-        <v>2359.665164647563</v>
+        <v>2488.032201190603</v>
       </c>
       <c r="AC10" t="n">
-        <v>2134.462033144457</v>
+        <v>2250.577899884097</v>
       </c>
       <c r="AD10" t="n">
-        <v>1724593.68582361</v>
+        <v>1818412.497071383</v>
       </c>
       <c r="AE10" t="n">
-        <v>2359665.164647562</v>
+        <v>2488032.201190603</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.420166197067712e-06</v>
+        <v>2.062321348425136e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.75</v>
       </c>
       <c r="AH10" t="n">
-        <v>2134462.033144457</v>
+        <v>2250577.899884097</v>
       </c>
     </row>
     <row r="11">
@@ -48491,28 +48491,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1728.255081620263</v>
+        <v>1830.4321939996</v>
       </c>
       <c r="AB11" t="n">
-        <v>2364.674847905927</v>
+        <v>2504.478080799393</v>
       </c>
       <c r="AC11" t="n">
-        <v>2138.993599263778</v>
+        <v>2265.454207824961</v>
       </c>
       <c r="AD11" t="n">
-        <v>1728255.081620263</v>
+        <v>1830432.1939996</v>
       </c>
       <c r="AE11" t="n">
-        <v>2364674.847905926</v>
+        <v>2504478.080799393</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.415273162561214e-06</v>
+        <v>2.055215835322398e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.82708333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>2138993.599263778</v>
+        <v>2265454.207824961</v>
       </c>
     </row>
     <row r="12">
@@ -48597,28 +48597,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1668.14644878497</v>
+        <v>1761.794667832151</v>
       </c>
       <c r="AB12" t="n">
-        <v>2282.431564654953</v>
+        <v>2410.565189423146</v>
       </c>
       <c r="AC12" t="n">
-        <v>2064.599499537104</v>
+        <v>2180.504230994092</v>
       </c>
       <c r="AD12" t="n">
-        <v>1668146.44878497</v>
+        <v>1761794.667832151</v>
       </c>
       <c r="AE12" t="n">
-        <v>2282431.564654953</v>
+        <v>2410565.189423146</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.438255597364461e-06</v>
+        <v>2.088590215047382e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.47708333333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>2064599.499537104</v>
+        <v>2180504.230994092</v>
       </c>
     </row>
     <row r="13">
@@ -48703,28 +48703,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1638.040598319338</v>
+        <v>1731.688817366519</v>
       </c>
       <c r="AB13" t="n">
-        <v>2241.23941187149</v>
+        <v>2369.373036639684</v>
       </c>
       <c r="AC13" t="n">
-        <v>2027.338668001746</v>
+        <v>2143.243399458734</v>
       </c>
       <c r="AD13" t="n">
-        <v>1638040.598319338</v>
+        <v>1731688.817366519</v>
       </c>
       <c r="AE13" t="n">
-        <v>2241239.41187149</v>
+        <v>2369373.036639683</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.446558928648214e-06</v>
+        <v>2.10064805546415e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.35416666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>2027338.668001746</v>
+        <v>2143243.399458734</v>
       </c>
     </row>
     <row r="14">
@@ -48809,28 +48809,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1608.266346081278</v>
+        <v>1701.914565128459</v>
       </c>
       <c r="AB14" t="n">
-        <v>2200.500966412074</v>
+        <v>2328.634591180267</v>
       </c>
       <c r="AC14" t="n">
-        <v>1990.488242600209</v>
+        <v>2106.392974057197</v>
       </c>
       <c r="AD14" t="n">
-        <v>1608266.346081278</v>
+        <v>1701914.565128459</v>
       </c>
       <c r="AE14" t="n">
-        <v>2200500.966412074</v>
+        <v>2328634.591180267</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.455307081250741e-06</v>
+        <v>2.113351851617531e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>21.225</v>
       </c>
       <c r="AH14" t="n">
-        <v>1990488.242600209</v>
+        <v>2106392.974057197</v>
       </c>
     </row>
     <row r="15">
@@ -48915,28 +48915,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1584.060753149506</v>
+        <v>1677.708972196687</v>
       </c>
       <c r="AB15" t="n">
-        <v>2167.38180628743</v>
+        <v>2295.515431055623</v>
       </c>
       <c r="AC15" t="n">
-        <v>1960.529928634827</v>
+        <v>2076.434660091816</v>
       </c>
       <c r="AD15" t="n">
-        <v>1584060.753149506</v>
+        <v>1677708.972196687</v>
       </c>
       <c r="AE15" t="n">
-        <v>2167381.80628743</v>
+        <v>2295515.431055623</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.461534579713556e-06</v>
+        <v>2.122395231930107e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>21.13541666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>1960529.928634827</v>
+        <v>2076434.660091816</v>
       </c>
     </row>
     <row r="16">
@@ -49021,28 +49021,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1558.520717996768</v>
+        <v>1643.810635912386</v>
       </c>
       <c r="AB16" t="n">
-        <v>2132.436803444626</v>
+        <v>2249.134231862392</v>
       </c>
       <c r="AC16" t="n">
-        <v>1928.920027817721</v>
+        <v>2034.480017453165</v>
       </c>
       <c r="AD16" t="n">
-        <v>1558520.717996768</v>
+        <v>1643810.635912386</v>
       </c>
       <c r="AE16" t="n">
-        <v>2132436.803444626</v>
+        <v>2249134.231862392</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.467465530630522e-06</v>
+        <v>2.131007975084942e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>22</v>
+        <v>21.05</v>
       </c>
       <c r="AH16" t="n">
-        <v>1928920.027817721</v>
+        <v>2034480.017453165</v>
       </c>
     </row>
     <row r="17">
@@ -49127,28 +49127,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1524.899882139566</v>
+        <v>1618.633352532767</v>
       </c>
       <c r="AB17" t="n">
-        <v>2086.435292578205</v>
+        <v>2214.685561999047</v>
       </c>
       <c r="AC17" t="n">
-        <v>1887.308836584866</v>
+        <v>2003.319080292566</v>
       </c>
       <c r="AD17" t="n">
-        <v>1524899.882139566</v>
+        <v>1618633.352532767</v>
       </c>
       <c r="AE17" t="n">
-        <v>2086435.292578205</v>
+        <v>2214685.561999048</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.472210291364096e-06</v>
+        <v>2.13789816960881e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>21</v>
+        <v>20.98125</v>
       </c>
       <c r="AH17" t="n">
-        <v>1887308.836584866</v>
+        <v>2003319.080292566</v>
       </c>
     </row>
     <row r="18">
@@ -49233,28 +49233,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1496.505227615438</v>
+        <v>1590.23869800864</v>
       </c>
       <c r="AB18" t="n">
-        <v>2047.584473574546</v>
+        <v>2175.834742995388</v>
       </c>
       <c r="AC18" t="n">
-        <v>1852.165885219448</v>
+        <v>1968.176128927149</v>
       </c>
       <c r="AD18" t="n">
-        <v>1496505.227615438</v>
+        <v>1590238.69800864</v>
       </c>
       <c r="AE18" t="n">
-        <v>2047584.473574546</v>
+        <v>2175834.742995388</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.480365348874925e-06</v>
+        <v>2.149740691446707e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>21</v>
+        <v>20.86666666666666</v>
       </c>
       <c r="AH18" t="n">
-        <v>1852165.885219448</v>
+        <v>1968176.128927149</v>
       </c>
     </row>
     <row r="19">
@@ -49339,28 +49339,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1492.876803908164</v>
+        <v>1586.610274301365</v>
       </c>
       <c r="AB19" t="n">
-        <v>2042.619904183496</v>
+        <v>2170.870173604339</v>
       </c>
       <c r="AC19" t="n">
-        <v>1847.675127363264</v>
+        <v>1963.685371070964</v>
       </c>
       <c r="AD19" t="n">
-        <v>1492876.803908163</v>
+        <v>1586610.274301365</v>
       </c>
       <c r="AE19" t="n">
-        <v>2042619.904183496</v>
+        <v>2170870.173604338</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.476658504551821e-06</v>
+        <v>2.144357726974936e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>21</v>
+        <v>20.91875</v>
       </c>
       <c r="AH19" t="n">
-        <v>1847675.127363264</v>
+        <v>1963685.371070964</v>
       </c>
     </row>
     <row r="20">
@@ -49445,28 +49445,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1493.901538400797</v>
+        <v>1587.635008793998</v>
       </c>
       <c r="AB20" t="n">
-        <v>2044.021991124412</v>
+        <v>2172.272260545254</v>
       </c>
       <c r="AC20" t="n">
-        <v>1848.94340109438</v>
+        <v>1964.953644802081</v>
       </c>
       <c r="AD20" t="n">
-        <v>1493901.538400797</v>
+        <v>1587635.008793998</v>
       </c>
       <c r="AE20" t="n">
-        <v>2044021.991124412</v>
+        <v>2172272.260545254</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.478289516053987e-06</v>
+        <v>2.146726231342515e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>21</v>
+        <v>20.89583333333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>1848943.40109438</v>
+        <v>1964953.644802081</v>
       </c>
     </row>
     <row r="21">
@@ -49551,28 +49551,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1499.202671961709</v>
+        <v>1592.936142354911</v>
       </c>
       <c r="AB21" t="n">
-        <v>2051.27523593196</v>
+        <v>2179.525505352802</v>
       </c>
       <c r="AC21" t="n">
-        <v>1855.504406397489</v>
+        <v>1971.514650105189</v>
       </c>
       <c r="AD21" t="n">
-        <v>1499202.671961709</v>
+        <v>1592936.142354911</v>
       </c>
       <c r="AE21" t="n">
-        <v>2051275.23593196</v>
+        <v>2179525.505352802</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.478289516053987e-06</v>
+        <v>2.146726231342515e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>21</v>
+        <v>20.89583333333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>1855504.406397489</v>
+        <v>1971514.650105189</v>
       </c>
     </row>
     <row r="22">
@@ -49657,28 +49657,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1505.704299761361</v>
+        <v>1599.437770154562</v>
       </c>
       <c r="AB22" t="n">
-        <v>2060.171049919019</v>
+        <v>2188.42131933986</v>
       </c>
       <c r="AC22" t="n">
-        <v>1863.551216382976</v>
+        <v>1979.561460090676</v>
       </c>
       <c r="AD22" t="n">
-        <v>1505704.299761361</v>
+        <v>1599437.770154562</v>
       </c>
       <c r="AE22" t="n">
-        <v>2060171.049919019</v>
+        <v>2188421.31933986</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.478141242281063e-06</v>
+        <v>2.146510912763644e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>21</v>
+        <v>20.89791666666667</v>
       </c>
       <c r="AH22" t="n">
-        <v>1863551.216382975</v>
+        <v>1979561.460090676</v>
       </c>
     </row>
   </sheetData>
@@ -49954,28 +49954,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>752.66805972666</v>
+        <v>837.9707760237727</v>
       </c>
       <c r="AB2" t="n">
-        <v>1029.833644689294</v>
+        <v>1146.548584417247</v>
       </c>
       <c r="AC2" t="n">
-        <v>931.5477670207457</v>
+        <v>1037.123596711509</v>
       </c>
       <c r="AD2" t="n">
-        <v>752668.05972666</v>
+        <v>837970.7760237727</v>
       </c>
       <c r="AE2" t="n">
-        <v>1029833.644689295</v>
+        <v>1146548.584417247</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.632020978045732e-06</v>
+        <v>2.720481736156168e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.32083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>931547.7670207457</v>
+        <v>1037123.59671151</v>
       </c>
     </row>
   </sheetData>
@@ -50251,28 +50251,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2645.597108917694</v>
+        <v>2780.534964651992</v>
       </c>
       <c r="AB2" t="n">
-        <v>3619.822679928473</v>
+        <v>3804.450607182202</v>
       </c>
       <c r="AC2" t="n">
-        <v>3274.351883809003</v>
+        <v>3441.359180812552</v>
       </c>
       <c r="AD2" t="n">
-        <v>2645597.108917694</v>
+        <v>2780534.964651992</v>
       </c>
       <c r="AE2" t="n">
-        <v>3619822.679928473</v>
+        <v>3804450.607182202</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.042668869658911e-06</v>
+        <v>1.586844656997126e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.63125</v>
       </c>
       <c r="AH2" t="n">
-        <v>3274351.883809003</v>
+        <v>3441359.180812552</v>
       </c>
     </row>
     <row r="3">
@@ -50357,28 +50357,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1630.859813562543</v>
+        <v>1734.027505393577</v>
       </c>
       <c r="AB3" t="n">
-        <v>2231.414345373378</v>
+        <v>2372.572932773938</v>
       </c>
       <c r="AC3" t="n">
-        <v>2018.451292060645</v>
+        <v>2146.137901997019</v>
       </c>
       <c r="AD3" t="n">
-        <v>1630859.813562542</v>
+        <v>1734027.505393577</v>
       </c>
       <c r="AE3" t="n">
-        <v>2231414.345373378</v>
+        <v>2372572.932773938</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.369268358980418e-06</v>
+        <v>2.0838985824465e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.84791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2018451.292060645</v>
+        <v>2146137.901997019</v>
       </c>
     </row>
     <row r="4">
@@ -50463,28 +50463,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1398.511019975877</v>
+        <v>1493.736170831096</v>
       </c>
       <c r="AB4" t="n">
-        <v>1913.504475482774</v>
+        <v>2043.795727920046</v>
       </c>
       <c r="AC4" t="n">
-        <v>1730.882293963096</v>
+        <v>1848.738732132676</v>
       </c>
       <c r="AD4" t="n">
-        <v>1398511.019975877</v>
+        <v>1493736.170831096</v>
       </c>
       <c r="AE4" t="n">
-        <v>1913504.475482774</v>
+        <v>2043795.727920046</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.482761681519642e-06</v>
+        <v>2.256624821540157e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.94583333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1730882.293963096</v>
+        <v>1848738.732132676</v>
       </c>
     </row>
     <row r="5">
@@ -50569,28 +50569,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1290.268200902516</v>
+        <v>1377.55090029047</v>
       </c>
       <c r="AB5" t="n">
-        <v>1765.40187509045</v>
+        <v>1884.825915033981</v>
       </c>
       <c r="AC5" t="n">
-        <v>1596.91439788891</v>
+        <v>1704.940775072923</v>
       </c>
       <c r="AD5" t="n">
-        <v>1290268.200902516</v>
+        <v>1377550.90029047</v>
       </c>
       <c r="AE5" t="n">
-        <v>1765401.87509045</v>
+        <v>1884825.915033981</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.539753292406245e-06</v>
+        <v>2.343360731531073e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.09375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1596914.39788891</v>
+        <v>1704940.775072923</v>
       </c>
     </row>
     <row r="6">
@@ -50675,28 +50675,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1204.879739411577</v>
+        <v>1292.247690145551</v>
       </c>
       <c r="AB6" t="n">
-        <v>1648.569615005493</v>
+        <v>1768.110299601673</v>
       </c>
       <c r="AC6" t="n">
-        <v>1491.232444731354</v>
+        <v>1599.36433416608</v>
       </c>
       <c r="AD6" t="n">
-        <v>1204879.739411577</v>
+        <v>1292247.690145551</v>
       </c>
       <c r="AE6" t="n">
-        <v>1648569.615005493</v>
+        <v>1768110.299601673</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.576005835720932e-06</v>
+        <v>2.398533717255953e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.58541666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1491232.444731354</v>
+        <v>1599364.33416608</v>
       </c>
     </row>
     <row r="7">
@@ -50781,28 +50781,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1149.122420415238</v>
+        <v>1236.319778948621</v>
       </c>
       <c r="AB7" t="n">
-        <v>1572.279991315395</v>
+        <v>1691.587264136728</v>
       </c>
       <c r="AC7" t="n">
-        <v>1422.223795653081</v>
+        <v>1530.144549805155</v>
       </c>
       <c r="AD7" t="n">
-        <v>1149122.420415238</v>
+        <v>1236319.778948621</v>
       </c>
       <c r="AE7" t="n">
-        <v>1572279.991315395</v>
+        <v>1691587.264136728</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.597561402016152e-06</v>
+        <v>2.431339276335612e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.29583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1422223.795653081</v>
+        <v>1530144.549805155</v>
       </c>
     </row>
     <row r="8">
@@ -50887,28 +50887,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1139.850228123609</v>
+        <v>1227.047586656991</v>
       </c>
       <c r="AB8" t="n">
-        <v>1559.593368761733</v>
+        <v>1678.900641583067</v>
       </c>
       <c r="AC8" t="n">
-        <v>1410.747966550153</v>
+        <v>1518.668720702228</v>
       </c>
       <c r="AD8" t="n">
-        <v>1139850.228123609</v>
+        <v>1227047.586656991</v>
       </c>
       <c r="AE8" t="n">
-        <v>1559593.368761733</v>
+        <v>1678900.641583066</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.60148059588801e-06</v>
+        <v>2.437303923441005e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.24166666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1410747.966550153</v>
+        <v>1518668.720702228</v>
       </c>
     </row>
     <row r="9">
@@ -50993,28 +50993,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1144.904512079941</v>
+        <v>1232.101870613324</v>
       </c>
       <c r="AB9" t="n">
-        <v>1566.508863050059</v>
+        <v>1685.816135871392</v>
       </c>
       <c r="AC9" t="n">
-        <v>1417.003455769559</v>
+        <v>1524.924209921633</v>
       </c>
       <c r="AD9" t="n">
-        <v>1144904.512079942</v>
+        <v>1232101.870613324</v>
       </c>
       <c r="AE9" t="n">
-        <v>1566508.863050059</v>
+        <v>1685816.135871392</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.602786993845296e-06</v>
+        <v>2.439292139142802e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.22708333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1417003.455769558</v>
+        <v>1524924.209921633</v>
       </c>
     </row>
   </sheetData>
@@ -51290,28 +51290,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3815.466305370033</v>
+        <v>3978.620046721514</v>
       </c>
       <c r="AB2" t="n">
-        <v>5220.489325501082</v>
+        <v>5443.723472253261</v>
       </c>
       <c r="AC2" t="n">
-        <v>4722.25315127785</v>
+        <v>4924.182144375084</v>
       </c>
       <c r="AD2" t="n">
-        <v>3815466.305370033</v>
+        <v>3978620.046721513</v>
       </c>
       <c r="AE2" t="n">
-        <v>5220489.325501082</v>
+        <v>5443723.472253261</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.68340705487381e-07</v>
+        <v>1.296355125276157e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.72083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4722253.151277849</v>
+        <v>4924182.144375084</v>
       </c>
     </row>
     <row r="3">
@@ -51396,28 +51396,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2057.804368922937</v>
+        <v>2171.875532010209</v>
       </c>
       <c r="AB3" t="n">
-        <v>2815.57872148191</v>
+        <v>2971.655919282459</v>
       </c>
       <c r="AC3" t="n">
-        <v>2546.863839993231</v>
+        <v>2688.045249091418</v>
       </c>
       <c r="AD3" t="n">
-        <v>2057804.368922936</v>
+        <v>2171875.532010209</v>
       </c>
       <c r="AE3" t="n">
-        <v>2815578.72148191</v>
+        <v>2971655.919282459</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.240329499473103e-06</v>
+        <v>1.851701173873547e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.40625</v>
       </c>
       <c r="AH3" t="n">
-        <v>2546863.839993231</v>
+        <v>2688045.249091418</v>
       </c>
     </row>
     <row r="4">
@@ -51502,28 +51502,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1722.634307303717</v>
+        <v>1828.624500583979</v>
       </c>
       <c r="AB4" t="n">
-        <v>2356.984256514967</v>
+        <v>2502.004714918336</v>
       </c>
       <c r="AC4" t="n">
-        <v>2132.036987121358</v>
+        <v>2263.216896512202</v>
       </c>
       <c r="AD4" t="n">
-        <v>1722634.307303717</v>
+        <v>1828624.500583979</v>
       </c>
       <c r="AE4" t="n">
-        <v>2356984.256514966</v>
+        <v>2502004.714918336</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.369723741844299e-06</v>
+        <v>2.044875222054296e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.9125</v>
       </c>
       <c r="AH4" t="n">
-        <v>2132036.987121358</v>
+        <v>2263216.896512202</v>
       </c>
     </row>
     <row r="5">
@@ -51608,28 +51608,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1572.333531761861</v>
+        <v>1670.242844743663</v>
       </c>
       <c r="AB5" t="n">
-        <v>2151.33610461636</v>
+        <v>2285.2999460921</v>
       </c>
       <c r="AC5" t="n">
-        <v>1946.015606210961</v>
+        <v>2067.194126675688</v>
       </c>
       <c r="AD5" t="n">
-        <v>1572333.531761861</v>
+        <v>1670242.844743663</v>
       </c>
       <c r="AE5" t="n">
-        <v>2151336.10461636</v>
+        <v>2285299.946092099</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.43701503678339e-06</v>
+        <v>2.14533511588341e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.79375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1946015.606210961</v>
+        <v>2067194.126675688</v>
       </c>
     </row>
     <row r="6">
@@ -51714,28 +51714,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1485.313923730799</v>
+        <v>1575.057105068122</v>
       </c>
       <c r="AB6" t="n">
-        <v>2032.272037874101</v>
+        <v>2155.062617769561</v>
       </c>
       <c r="AC6" t="n">
-        <v>1838.314846891115</v>
+        <v>1949.386466179014</v>
       </c>
       <c r="AD6" t="n">
-        <v>1485313.923730799</v>
+        <v>1575057.105068122</v>
       </c>
       <c r="AE6" t="n">
-        <v>2032272.037874101</v>
+        <v>2155062.617769561</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.47789292623237e-06</v>
+        <v>2.206362154190815e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.16458333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1838314.846891115</v>
+        <v>1949386.466179014</v>
       </c>
     </row>
     <row r="7">
@@ -51820,28 +51820,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1414.057000195533</v>
+        <v>1503.885432878875</v>
       </c>
       <c r="AB7" t="n">
-        <v>1934.775171459549</v>
+        <v>2057.682396007658</v>
       </c>
       <c r="AC7" t="n">
-        <v>1750.122944569457</v>
+        <v>1861.300076108068</v>
       </c>
       <c r="AD7" t="n">
-        <v>1414057.000195533</v>
+        <v>1503885.432878875</v>
       </c>
       <c r="AE7" t="n">
-        <v>1934775.171459549</v>
+        <v>2057682.396007658</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.505564112936296e-06</v>
+        <v>2.247672764737367e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.75625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1750122.944569457</v>
+        <v>1861300.076108068</v>
       </c>
     </row>
     <row r="8">
@@ -51926,28 +51926,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1359.285350491534</v>
+        <v>1448.943190974285</v>
       </c>
       <c r="AB8" t="n">
-        <v>1859.834183979891</v>
+        <v>1982.507996753153</v>
       </c>
       <c r="AC8" t="n">
-        <v>1682.334219754521</v>
+        <v>1793.30021601048</v>
       </c>
       <c r="AD8" t="n">
-        <v>1359285.350491534</v>
+        <v>1448943.190974285</v>
       </c>
       <c r="AE8" t="n">
-        <v>1859834.183979891</v>
+        <v>1982507.996753153</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.527260838874601e-06</v>
+        <v>2.280064038915913e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.44583333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1682334.219754521</v>
+        <v>1793300.21601048</v>
       </c>
     </row>
     <row r="9">
@@ -52032,28 +52032,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1321.494406738572</v>
+        <v>1411.152247221322</v>
       </c>
       <c r="AB9" t="n">
-        <v>1808.126947518316</v>
+        <v>1930.800760291578</v>
       </c>
       <c r="AC9" t="n">
-        <v>1635.561849369277</v>
+        <v>1746.527845625236</v>
       </c>
       <c r="AD9" t="n">
-        <v>1321494.406738572</v>
+        <v>1411152.247221322</v>
       </c>
       <c r="AE9" t="n">
-        <v>1808126.947518316</v>
+        <v>1930800.760291578</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.53826642449548e-06</v>
+        <v>2.296494395383291e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.29375</v>
       </c>
       <c r="AH9" t="n">
-        <v>1635561.849369277</v>
+        <v>1746527.845625236</v>
       </c>
     </row>
     <row r="10">
@@ -52138,28 +52138,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1281.634717731941</v>
+        <v>1371.292558214692</v>
       </c>
       <c r="AB10" t="n">
-        <v>1753.589162534073</v>
+        <v>1876.262975307335</v>
       </c>
       <c r="AC10" t="n">
-        <v>1586.229074039668</v>
+        <v>1697.195070295627</v>
       </c>
       <c r="AD10" t="n">
-        <v>1281634.717731941</v>
+        <v>1371292.558214692</v>
       </c>
       <c r="AE10" t="n">
-        <v>1753589.162534073</v>
+        <v>1876262.975307335</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.550372568678447e-06</v>
+        <v>2.314567787497407e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.12708333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1586229.074039668</v>
+        <v>1697195.070295627</v>
       </c>
     </row>
     <row r="11">
@@ -52244,28 +52244,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1262.162212322848</v>
+        <v>1343.824513361712</v>
       </c>
       <c r="AB11" t="n">
-        <v>1726.946021567044</v>
+        <v>1838.679984534873</v>
       </c>
       <c r="AC11" t="n">
-        <v>1562.128717052649</v>
+        <v>1663.19894741443</v>
       </c>
       <c r="AD11" t="n">
-        <v>1262162.212322848</v>
+        <v>1343824.513361712</v>
       </c>
       <c r="AE11" t="n">
-        <v>1726946.021567044</v>
+        <v>1838679.984534873</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.556189806792341e-06</v>
+        <v>2.323252404487307e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.04791666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1562128.717052649</v>
+        <v>1663198.94741443</v>
       </c>
     </row>
     <row r="12">
@@ -52350,28 +52350,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1266.481471415799</v>
+        <v>1348.143772454662</v>
       </c>
       <c r="AB12" t="n">
-        <v>1732.855822410281</v>
+        <v>1844.589785378111</v>
       </c>
       <c r="AC12" t="n">
-        <v>1567.474494797865</v>
+        <v>1668.544725159647</v>
       </c>
       <c r="AD12" t="n">
-        <v>1266481.471415799</v>
+        <v>1348143.772454662</v>
       </c>
       <c r="AE12" t="n">
-        <v>1732855.822410282</v>
+        <v>1844589.785378111</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.556189806792341e-06</v>
+        <v>2.323252404487307e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.04791666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1567474.494797865</v>
+        <v>1668544.725159647</v>
       </c>
     </row>
   </sheetData>
